--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_DOMUSE_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_DOMUSE_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>0.6862121467008387</v>
       </c>
-      <c r="BA2">
-        <v>0.6862121467008387</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>0.2275486077354662</v>
       </c>
-      <c r="BA3">
-        <v>0.2275486077354662</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>0.3687501267193452</v>
-      </c>
       <c r="C4">
         <v>-0.9716635481116656</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>-0.9716635481116656</v>
       </c>
-      <c r="BA4">
-        <v>-0.9716635481116656</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>0.4289790357957265</v>
-      </c>
       <c r="C5">
         <v>0.2805049688864443</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>0.2805049688864443</v>
       </c>
-      <c r="BA5">
-        <v>0.2805049688864443</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>0.4862943638151064</v>
-      </c>
-      <c r="C6">
-        <v>0.07385809375066507</v>
-      </c>
       <c r="D6">
         <v>-0.6760650065702858</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>-0.6760650065702858</v>
       </c>
-      <c r="BA6">
-        <v>-0.6760650065702858</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>0.1825565954063749</v>
-      </c>
       <c r="D7">
         <v>-0.04573875985788579</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>-0.04573875985788579</v>
       </c>
-      <c r="BA7">
-        <v>-0.04573875985788579</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>0.2499703847260129</v>
-      </c>
-      <c r="D8">
-        <v>0.04759709221050283</v>
-      </c>
       <c r="E8">
         <v>-0.4726963440578849</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>-0.4726963440578849</v>
       </c>
-      <c r="BA8">
-        <v>-0.4726963440578849</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>0.3557487242245973</v>
-      </c>
-      <c r="D9">
-        <v>0.02425657055817442</v>
-      </c>
       <c r="E9">
         <v>0.1769623127656392</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>0.1769623127656392</v>
       </c>
-      <c r="BA9">
-        <v>0.1769623127656392</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>0.439675160641272</v>
-      </c>
-      <c r="D10">
-        <v>0.110894297824093</v>
-      </c>
-      <c r="E10">
-        <v>-0.3121829680788278</v>
-      </c>
       <c r="F10">
         <v>0.2080098490516883</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>0.2080098490516883</v>
       </c>
-      <c r="BA10">
-        <v>0.2080098490516883</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>-0.08146792446627923</v>
-      </c>
-      <c r="D11">
-        <v>-0.3926185855182842</v>
-      </c>
-      <c r="E11">
-        <v>-0.2557783911609521</v>
-      </c>
       <c r="F11">
         <v>0.2409726375546795</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>0.2409726375546795</v>
       </c>
-      <c r="BA11">
-        <v>0.2409726375546795</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>0.00188200378154349</v>
-      </c>
-      <c r="D12">
-        <v>-0.04911386366384023</v>
-      </c>
-      <c r="E12">
-        <v>-0.01815108115886544</v>
-      </c>
-      <c r="F12">
-        <v>0.04559667465988843</v>
-      </c>
       <c r="G12">
         <v>0.03734130806860806</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>0.03734130806860806</v>
       </c>
-      <c r="BA12">
-        <v>0.03734130806860806</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>0.1627733554551264</v>
-      </c>
-      <c r="D13">
-        <v>-0.1760159573756034</v>
-      </c>
-      <c r="E13">
-        <v>0.1282079295924052</v>
-      </c>
-      <c r="F13">
-        <v>0.07734441595616109</v>
-      </c>
       <c r="G13">
         <v>0.01272818083837047</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>0.01272818083837047</v>
       </c>
-      <c r="BA13">
-        <v>0.01272818083837047</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>0.09954868028501047</v>
-      </c>
-      <c r="D14">
-        <v>-0.1672098504754677</v>
-      </c>
-      <c r="E14">
-        <v>0.1391395648441355</v>
-      </c>
-      <c r="F14">
-        <v>0.2010698647642802</v>
-      </c>
-      <c r="G14">
-        <v>0.2938267854569798</v>
-      </c>
       <c r="H14">
         <v>0.8</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>0.8</v>
       </c>
-      <c r="BA14">
-        <v>0.8</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>0.05794530256492892</v>
-      </c>
-      <c r="D15">
-        <v>-0.1429032724812269</v>
-      </c>
-      <c r="E15">
-        <v>-0.4519566359854925</v>
-      </c>
-      <c r="F15">
-        <v>-0.1795790854696046</v>
-      </c>
-      <c r="G15">
-        <v>0.1324433081987207</v>
-      </c>
       <c r="H15">
         <v>0.3</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>0.3</v>
       </c>
-      <c r="BA15">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>0.08859355018070304</v>
-      </c>
-      <c r="D16">
-        <v>-0.1626257812917729</v>
-      </c>
-      <c r="E16">
-        <v>-0.03281760037875617</v>
-      </c>
-      <c r="F16">
-        <v>-0.03731561128177331</v>
-      </c>
-      <c r="G16">
-        <v>0.172532842869652</v>
-      </c>
-      <c r="H16">
-        <v>0.3</v>
-      </c>
       <c r="I16">
         <v>0</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>0</v>
       </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.09627413580554707</v>
-      </c>
-      <c r="D17">
-        <v>-0.1542268090326069</v>
-      </c>
-      <c r="E17">
-        <v>-0.2311853132261014</v>
-      </c>
-      <c r="F17">
-        <v>-0.1100608660891703</v>
-      </c>
-      <c r="G17">
-        <v>0.2465811546857553</v>
-      </c>
-      <c r="H17">
-        <v>0.5</v>
-      </c>
       <c r="I17">
         <v>0.5</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>0.5</v>
       </c>
-      <c r="BA17">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.08410447031912552</v>
-      </c>
-      <c r="D18">
-        <v>-0.1555378935900908</v>
-      </c>
-      <c r="E18">
-        <v>-0.1609201655568749</v>
-      </c>
-      <c r="F18">
-        <v>-0.07592933309499683</v>
-      </c>
-      <c r="G18">
-        <v>0.274037055453982</v>
-      </c>
-      <c r="H18">
-        <v>0.4</v>
-      </c>
-      <c r="I18">
-        <v>0.6</v>
-      </c>
       <c r="J18">
         <v>0.1</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>0.1</v>
       </c>
-      <c r="BA18">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.08408779659962939</v>
-      </c>
-      <c r="D19">
-        <v>-0.1566194932746238</v>
-      </c>
-      <c r="E19">
-        <v>-0.1773541929143089</v>
-      </c>
-      <c r="F19">
-        <v>-0.09229460975882545</v>
-      </c>
-      <c r="G19">
-        <v>-0.02356535263560987</v>
-      </c>
-      <c r="H19">
-        <v>0.1805352207301557</v>
-      </c>
-      <c r="I19">
-        <v>0.6</v>
-      </c>
       <c r="J19">
         <v>0.4</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>0.4</v>
       </c>
-      <c r="BA19">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.08826735497078929</v>
-      </c>
-      <c r="D20">
-        <v>-0.1555196386068751</v>
-      </c>
-      <c r="E20">
-        <v>-0.1775548581918816</v>
-      </c>
-      <c r="F20">
-        <v>-0.08449163432312061</v>
-      </c>
-      <c r="G20">
-        <v>0.03618031182550856</v>
-      </c>
-      <c r="H20">
-        <v>0.1545091721523792</v>
-      </c>
-      <c r="I20">
-        <v>0.7</v>
-      </c>
-      <c r="J20">
-        <v>0.4</v>
-      </c>
       <c r="K20">
         <v>0.5</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>0.5</v>
       </c>
-      <c r="BA20">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.1746274518794283</v>
-      </c>
-      <c r="F21">
-        <v>-0.08821744529498335</v>
-      </c>
-      <c r="G21">
-        <v>-0.02126744394318535</v>
-      </c>
-      <c r="H21">
-        <v>0.09977866553516465</v>
-      </c>
-      <c r="I21">
-        <v>0.6</v>
-      </c>
-      <c r="J21">
-        <v>0.3</v>
-      </c>
       <c r="K21">
         <v>0.3</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>0.3</v>
       </c>
-      <c r="BA21">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.1766784130536467</v>
-      </c>
-      <c r="F22">
-        <v>-0.08643907942973292</v>
-      </c>
-      <c r="G22">
-        <v>-0.001261900480619038</v>
-      </c>
-      <c r="H22">
-        <v>0.09301762424319593</v>
-      </c>
-      <c r="I22">
-        <v>0.6</v>
-      </c>
-      <c r="J22">
-        <v>0.3</v>
-      </c>
       <c r="K22">
-        <v>0.4</v>
+        <v>0.1725871103510327</v>
       </c>
       <c r="L22">
         <v>0.1</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>0.1</v>
       </c>
-      <c r="BA22">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.1757136781778004</v>
-      </c>
-      <c r="F23">
-        <v>-0.08728799125687517</v>
-      </c>
-      <c r="G23">
-        <v>-0.01393062233793868</v>
-      </c>
-      <c r="H23">
-        <v>0.07936741767042399</v>
-      </c>
-      <c r="I23">
-        <v>0.3955778962169288</v>
-      </c>
-      <c r="J23">
-        <v>0.1348737732282645</v>
-      </c>
       <c r="K23">
-        <v>0.7</v>
+        <v>0.1336674169417981</v>
       </c>
       <c r="L23">
         <v>0.2</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0.2</v>
       </c>
-      <c r="BA23">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.1760532795709205</v>
-      </c>
-      <c r="F24">
-        <v>-0.08688276882679402</v>
-      </c>
-      <c r="G24">
-        <v>-0.008456024323145591</v>
-      </c>
-      <c r="H24">
-        <v>0.07761401048102501</v>
-      </c>
-      <c r="I24">
-        <v>0.3603203552710197</v>
-      </c>
-      <c r="J24">
-        <v>0.1389592289693484</v>
-      </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.1080353460965529</v>
       </c>
       <c r="L24">
-        <v>0.4</v>
+        <v>0.09097773417734858</v>
       </c>
       <c r="M24">
         <v>0.9</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>0.9</v>
       </c>
-      <c r="BA24">
-        <v>0.9</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>-0.01144792302300485</v>
-      </c>
-      <c r="H25">
-        <v>0.074209192771702</v>
-      </c>
-      <c r="I25">
-        <v>0.2894604440803488</v>
-      </c>
-      <c r="J25">
-        <v>0.1025681565384245</v>
-      </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.1004782431819586</v>
       </c>
       <c r="L25">
-        <v>0.4</v>
+        <v>0.1139082994026391</v>
       </c>
       <c r="M25">
         <v>0.4</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>0.4</v>
       </c>
-      <c r="BA25">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>-0.01003830754873006</v>
-      </c>
-      <c r="H26">
-        <v>0.07375517306657055</v>
-      </c>
-      <c r="I26">
-        <v>0.2660662481376248</v>
-      </c>
-      <c r="J26">
-        <v>0.104366388592594</v>
-      </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.09531635206491361</v>
       </c>
       <c r="L26">
-        <v>0.6</v>
+        <v>0.09124813184991852</v>
       </c>
       <c r="M26">
-        <v>0.6</v>
+        <v>0.3160648407609832</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>0</v>
       </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>-0.01076664195945903</v>
-      </c>
-      <c r="H27">
-        <v>0.07290581043367951</v>
-      </c>
-      <c r="I27">
-        <v>0.239576703008442</v>
-      </c>
-      <c r="J27">
-        <v>0.0963241873699717</v>
-      </c>
       <c r="K27">
-        <v>0.3278703470812711</v>
+        <v>0.09385264202674776</v>
       </c>
       <c r="L27">
-        <v>0.2266972137674597</v>
+        <v>0.0964491961210211</v>
       </c>
       <c r="M27">
-        <v>0.4</v>
+        <v>0.2117973609336832</v>
       </c>
       <c r="N27">
         <v>0.5</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>0.5</v>
       </c>
-      <c r="BA27">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>-0.01041152415346499</v>
-      </c>
-      <c r="H28">
-        <v>0.07278841760491112</v>
-      </c>
-      <c r="I28">
-        <v>0.2275946016055515</v>
-      </c>
-      <c r="J28">
-        <v>0.0969183624251526</v>
-      </c>
       <c r="K28">
-        <v>0.3069126221556759</v>
+        <v>0.09281196594698804</v>
       </c>
       <c r="L28">
-        <v>0.2582850241604009</v>
+        <v>0.0917286962811799</v>
       </c>
       <c r="M28">
-        <v>0.5</v>
+        <v>0.1898674858743904</v>
       </c>
       <c r="N28">
-        <v>0.6</v>
+        <v>0.136100147957521</v>
       </c>
       <c r="O28">
         <v>0.2132975555746283</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>0.2132975555746283</v>
       </c>
-      <c r="BA28">
-        <v>0.2132975555746283</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.2171337813487698</v>
-      </c>
-      <c r="J29">
-        <v>0.09513621731321868</v>
-      </c>
       <c r="K29">
-        <v>0.2504953187036345</v>
+        <v>0.0925292755105836</v>
       </c>
       <c r="L29">
-        <v>0.1720767946996652</v>
+        <v>0.09289816789812023</v>
       </c>
       <c r="M29">
-        <v>0.5</v>
+        <v>0.1679067930199735</v>
       </c>
       <c r="N29">
-        <v>0.6</v>
+        <v>0.2106425235929193</v>
       </c>
       <c r="O29">
         <v>0.4704848369192122</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>0.4704848369192122</v>
       </c>
-      <c r="BA29">
-        <v>0.4704848369192122</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.2115325764797575</v>
-      </c>
-      <c r="J30">
-        <v>0.09531089267421637</v>
-      </c>
       <c r="K30">
-        <v>0.2370677748575231</v>
+        <v>0.09231922143511528</v>
       </c>
       <c r="L30">
-        <v>0.1759494925227457</v>
+        <v>0.09191270999308679</v>
       </c>
       <c r="M30">
-        <v>0.5</v>
+        <v>0.1624363849403722</v>
       </c>
       <c r="N30">
-        <v>0.7</v>
+        <v>0.1527820929316046</v>
       </c>
       <c r="O30">
-        <v>0.5574053391673682</v>
+        <v>0.1865080065087939</v>
       </c>
       <c r="P30">
         <v>0.3964520361608751</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>0.3964520361608751</v>
       </c>
-      <c r="BA30">
-        <v>0.3964520361608751</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.2072516055513228</v>
-      </c>
-      <c r="J31">
-        <v>0.09491490675199321</v>
-      </c>
       <c r="K31">
-        <v>0.2177778859466031</v>
+        <v>0.09226480437885314</v>
       </c>
       <c r="L31">
-        <v>0.1559009180856593</v>
+        <v>0.09217381618781939</v>
       </c>
       <c r="M31">
-        <v>0.3327709066431564</v>
+        <v>0.1577692498323758</v>
       </c>
       <c r="N31">
-        <v>0.3554144581795626</v>
+        <v>0.163826800421748</v>
       </c>
       <c r="O31">
-        <v>0.6270319951212102</v>
+        <v>0.2244579647400382</v>
       </c>
       <c r="P31">
         <v>0.4230165803625844</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>0.4230165803625844</v>
       </c>
-      <c r="BA31">
-        <v>0.4230165803625844</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.2047382943269733</v>
-      </c>
-      <c r="J32">
-        <v>0.09496309261958286</v>
-      </c>
-      <c r="K32">
-        <v>0.2112272731686966</v>
-      </c>
       <c r="L32">
-        <v>0.1559873964205134</v>
+        <v>0.09196767695004285</v>
       </c>
       <c r="M32">
-        <v>0.3137691435678436</v>
+        <v>0.1564444633285771</v>
       </c>
       <c r="N32">
-        <v>0.3317755682657301</v>
+        <v>0.1546116219915922</v>
       </c>
       <c r="O32">
-        <v>0.6139019510134808</v>
+        <v>0.1748126002386641</v>
       </c>
       <c r="P32">
-        <v>0.441271320051471</v>
+        <v>0.2404741645444486</v>
       </c>
       <c r="Q32">
         <v>0.3531481090437554</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>0.3531481090437554</v>
       </c>
-      <c r="BA32">
-        <v>0.3531481090437554</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.2043931972764649</v>
-      </c>
       <c r="L33">
-        <v>0.1512915510122893</v>
+        <v>0.09202563521140009</v>
       </c>
       <c r="M33">
-        <v>0.262541495238957</v>
+        <v>0.1554446314900677</v>
       </c>
       <c r="N33">
-        <v>0.2600081799792281</v>
+        <v>0.1562359043347839</v>
       </c>
       <c r="O33">
-        <v>0.5931605710930145</v>
+        <v>0.180194906917544</v>
       </c>
       <c r="P33">
-        <v>0.4821562482120857</v>
+        <v>0.23604931778711</v>
       </c>
       <c r="Q33">
         <v>0.4376510431580233</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>0.4376510431580233</v>
       </c>
-      <c r="BA33">
-        <v>0.4376510431580233</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.2015111878701755</v>
-      </c>
-      <c r="L34">
-        <v>0.151119457971247</v>
-      </c>
       <c r="M34">
-        <v>0.2511451273867475</v>
+        <v>0.1551302056294059</v>
       </c>
       <c r="N34">
-        <v>0.2462098017963938</v>
+        <v>0.1547656877595576</v>
       </c>
       <c r="O34">
-        <v>0.6046861411273345</v>
+        <v>0.171480634380214</v>
       </c>
       <c r="P34">
-        <v>0.5179490785864741</v>
+        <v>0.2010222827459535</v>
       </c>
       <c r="Q34">
-        <v>0.3590721657232594</v>
+        <v>0.2482135289078962</v>
       </c>
       <c r="R34">
         <v>0.6485846904589434</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>0.6485846904589434</v>
       </c>
-      <c r="BA34">
-        <v>0.6485846904589434</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.1990216582858297</v>
-      </c>
-      <c r="L35">
-        <v>0.150011701584767</v>
-      </c>
       <c r="M35">
-        <v>0.2348189215297382</v>
+        <v>0.1549145104951939</v>
       </c>
       <c r="N35">
-        <v>0.230139789043061</v>
+        <v>0.1550023812567823</v>
       </c>
       <c r="O35">
-        <v>0.3886985306061975</v>
+        <v>0.1721969824500155</v>
       </c>
       <c r="P35">
-        <v>0.3036199708147386</v>
+        <v>0.1983580669467231</v>
       </c>
       <c r="Q35">
-        <v>0.3460008116596983</v>
+        <v>0.2532750520343305</v>
       </c>
       <c r="R35">
         <v>0.5426591427781329</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>0.5426591427781329</v>
       </c>
-      <c r="BA35">
-        <v>0.5426591427781329</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.1978166596216137</v>
-      </c>
-      <c r="L36">
-        <v>0.149925984126795</v>
-      </c>
-      <c r="M36">
-        <v>0.2296198875380443</v>
-      </c>
       <c r="N36">
-        <v>0.2253525125048757</v>
+        <v>0.1547673929158088</v>
       </c>
       <c r="O36">
-        <v>0.3602106182016599</v>
+        <v>0.1706609458275345</v>
       </c>
       <c r="P36">
-        <v>0.2924744529470405</v>
+        <v>0.1915425734111587</v>
       </c>
       <c r="Q36">
-        <v>0.3798990633234132</v>
+        <v>0.2149387202101687</v>
       </c>
       <c r="R36">
-        <v>0.465358823684203</v>
+        <v>0.3588095535939414</v>
       </c>
       <c r="S36">
         <v>0.2044328674106259</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>0.2044328674106259</v>
       </c>
-      <c r="BA36">
-        <v>0.2044328674106259</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.2242386840939591</v>
-      </c>
       <c r="N37">
-        <v>0.2215393645753052</v>
+        <v>0.1548014909653629</v>
       </c>
       <c r="O37">
-        <v>0.3004833649452999</v>
+        <v>0.17074571780303</v>
       </c>
       <c r="P37">
-        <v>0.2443622431272702</v>
+        <v>0.1906804344148441</v>
       </c>
       <c r="Q37">
-        <v>0.3778469186191579</v>
+        <v>0.2135059479843108</v>
       </c>
       <c r="R37">
-        <v>0.4676693337119137</v>
+        <v>0.3152853982194056</v>
       </c>
       <c r="S37">
         <v>0.4167513714050496</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>0.4167513714050496</v>
       </c>
-      <c r="BA37">
-        <v>0.4167513714050496</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.2221017274581336</v>
-      </c>
-      <c r="N38">
-        <v>0.2201014105081422</v>
-      </c>
       <c r="O38">
-        <v>0.2844548395078039</v>
+        <v>0.1704737998735747</v>
       </c>
       <c r="P38">
-        <v>0.2376432639137389</v>
+        <v>0.1893364207871745</v>
       </c>
       <c r="Q38">
-        <v>0.4227478705096062</v>
+        <v>0.2055898153855885</v>
       </c>
       <c r="R38">
-        <v>0.4655287168484761</v>
+        <v>0.2693257482070094</v>
       </c>
       <c r="S38">
-        <v>0.4317275967540061</v>
+        <v>0.2426147231721751</v>
       </c>
       <c r="T38">
         <v>0.5527780896650785</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>0.5527780896650785</v>
       </c>
-      <c r="BA38">
-        <v>0.5527780896650785</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.2202799529504546</v>
-      </c>
-      <c r="N39">
-        <v>0.2191584020205518</v>
-      </c>
       <c r="O39">
-        <v>0.2667514366239777</v>
+        <v>0.1704812993476633</v>
       </c>
       <c r="P39">
-        <v>0.226468988832415</v>
+        <v>0.1891022132425622</v>
       </c>
       <c r="Q39">
-        <v>0.2774418886894193</v>
+        <v>0.2047882436731868</v>
       </c>
       <c r="R39">
-        <v>0.4446116405375959</v>
+        <v>0.2546176902450179</v>
       </c>
       <c r="S39">
-        <v>0.4649253839788815</v>
+        <v>0.2725186282839677</v>
       </c>
       <c r="T39">
         <v>0.4865322308196076</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>0.4865322308196076</v>
       </c>
-      <c r="BA39">
-        <v>0.4865322308196076</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.2194459219174273</v>
-      </c>
-      <c r="N40">
-        <v>0.2187520853682969</v>
-      </c>
-      <c r="O40">
-        <v>0.2600488242610089</v>
-      </c>
       <c r="P40">
-        <v>0.2240003508569117</v>
+        <v>0.1888338372389537</v>
       </c>
       <c r="Q40">
-        <v>0.2749703845991773</v>
+        <v>0.2031211010232817</v>
       </c>
       <c r="R40">
-        <v>0.4583420139574179</v>
+        <v>0.2427175625274905</v>
       </c>
       <c r="S40">
-        <v>0.464706009303935</v>
+        <v>0.2370753313296643</v>
       </c>
       <c r="T40">
-        <v>0.439205442809822</v>
+        <v>0.3458538036724444</v>
       </c>
       <c r="U40">
         <v>0.5234718933384791</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>0.5234718933384791</v>
       </c>
-      <c r="BA40">
-        <v>0.5234718933384791</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.2545172432802212</v>
-      </c>
       <c r="P41">
-        <v>0.2213245076016266</v>
+        <v>0.1887752411879949</v>
       </c>
       <c r="Q41">
-        <v>0.2425411559934826</v>
+        <v>0.2028502805098512</v>
       </c>
       <c r="R41">
-        <v>0.468500008457445</v>
+        <v>0.2381370731857801</v>
       </c>
       <c r="S41">
-        <v>0.4650028279414912</v>
+        <v>0.2402316433828962</v>
       </c>
       <c r="T41">
-        <v>0.4554361154544261</v>
+        <v>0.3142874766241929</v>
       </c>
       <c r="U41">
         <v>0.535576229457463</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>0.535576229457463</v>
       </c>
-      <c r="BA41">
-        <v>0.535576229457463</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.2519869556663012</v>
-      </c>
-      <c r="P42">
-        <v>0.2205443429129219</v>
-      </c>
       <c r="Q42">
-        <v>0.2392196898955608</v>
+        <v>0.202492618038068</v>
       </c>
       <c r="R42">
-        <v>0.4581376173868208</v>
+        <v>0.2349729303354762</v>
       </c>
       <c r="S42">
-        <v>0.4751082807008908</v>
+        <v>0.2327343086829392</v>
       </c>
       <c r="T42">
-        <v>0.4681240581637052</v>
+        <v>0.2793910282468716</v>
       </c>
       <c r="U42">
-        <v>0.5345069569581535</v>
+        <v>0.3644648922895452</v>
       </c>
       <c r="V42">
         <v>0.5969715903930113</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>0.5969715903930113</v>
       </c>
-      <c r="BA42">
-        <v>0.5969715903930113</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.2501950721351351</v>
-      </c>
-      <c r="P43">
-        <v>0.2198868040939179</v>
-      </c>
       <c r="Q43">
-        <v>0.2317452796697363</v>
+        <v>0.2024143422629989</v>
       </c>
       <c r="R43">
-        <v>0.3496896972981128</v>
+        <v>0.2336046124774364</v>
       </c>
       <c r="S43">
-        <v>0.3383988996858347</v>
+        <v>0.2327042802846181</v>
       </c>
       <c r="T43">
-        <v>0.4069997706025841</v>
+        <v>0.2682152086408786</v>
       </c>
       <c r="U43">
-        <v>0.4502423177986457</v>
+        <v>0.343876097522368</v>
       </c>
       <c r="V43">
-        <v>0.523195999394372</v>
+        <v>0.3881960370485724</v>
       </c>
       <c r="W43">
         <v>0.6598534028039785</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>0.6598534028039785</v>
       </c>
-      <c r="BA43">
-        <v>0.6598534028039785</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.2492830230092173</v>
-      </c>
-      <c r="P44">
-        <v>0.219656937195241</v>
-      </c>
-      <c r="Q44">
-        <v>0.2303695895425413</v>
-      </c>
       <c r="R44">
-        <v>0.3314368586418112</v>
+        <v>0.2327471477717474</v>
       </c>
       <c r="S44">
-        <v>0.3232408206959655</v>
+        <v>0.231050912369209</v>
       </c>
       <c r="T44">
-        <v>0.4069448174936598</v>
+        <v>0.2591564389510992</v>
       </c>
       <c r="U44">
-        <v>0.4579918239270219</v>
+        <v>0.3003005192850594</v>
       </c>
       <c r="V44">
-        <v>0.5257894320622788</v>
+        <v>0.3724555600699075</v>
       </c>
       <c r="W44">
-        <v>0.5311940267827858</v>
+        <v>0.4292512808948041</v>
       </c>
       <c r="X44">
         <v>0.6207578930310335</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>0.6207578930310335</v>
       </c>
-      <c r="BA44">
-        <v>0.6207578930310335</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.2285946773696571</v>
-      </c>
       <c r="R45">
-        <v>0.3002943692619191</v>
+        <v>0.2323478138515276</v>
       </c>
       <c r="S45">
-        <v>0.2887255622151075</v>
+        <v>0.2308844505040329</v>
       </c>
       <c r="T45">
-        <v>0.4013087013777624</v>
+        <v>0.2555961899586678</v>
       </c>
       <c r="U45">
-        <v>0.4528393750975388</v>
+        <v>0.289419840626172</v>
       </c>
       <c r="V45">
-        <v>0.6097688595423931</v>
+        <v>0.3183000155899671</v>
       </c>
       <c r="W45">
-        <v>0.5505977758980651</v>
+        <v>0.4077533948611157</v>
       </c>
       <c r="X45">
-        <v>0.3570995650105052</v>
+        <v>0.4514671564882297</v>
       </c>
       <c r="Y45">
         <v>0.2938136814264701</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>0.2938136814264701</v>
       </c>
-      <c r="BA45">
-        <v>0.2938136814264701</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.228137856151629</v>
-      </c>
-      <c r="R46">
-        <v>0.2910338651982569</v>
-      </c>
       <c r="S46">
-        <v>0.2806797431867369</v>
+        <v>0.2305043838580837</v>
       </c>
       <c r="T46">
-        <v>0.4160685551819661</v>
+        <v>0.253165341858835</v>
       </c>
       <c r="U46">
-        <v>0.4658200159580188</v>
+        <v>0.2775494899181529</v>
       </c>
       <c r="V46">
-        <v>0.5543032000679144</v>
+        <v>0.3063571795188091</v>
       </c>
       <c r="W46">
-        <v>0.503120740971927</v>
+        <v>0.3444095529468991</v>
       </c>
       <c r="X46">
-        <v>0.3959737390416975</v>
+        <v>0.4111455342416738</v>
       </c>
       <c r="Y46">
-        <v>0.3782135419396975</v>
+        <v>0.3765299116180992</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>0</v>
       </c>
-      <c r="BA46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.2277052460011396</v>
-      </c>
-      <c r="R47">
-        <v>0.2815154187265522</v>
-      </c>
       <c r="S47">
-        <v>0.2714235476140927</v>
+        <v>0.230430993194778</v>
       </c>
       <c r="T47">
-        <v>0.3273444621300247</v>
+        <v>0.2520858905039342</v>
       </c>
       <c r="U47">
-        <v>0.3591476577769765</v>
+        <v>0.2733299093685557</v>
       </c>
       <c r="V47">
-        <v>0.499654622565137</v>
+        <v>0.291143161916507</v>
       </c>
       <c r="W47">
-        <v>0.6066926420644508</v>
+        <v>0.3284470291294821</v>
       </c>
       <c r="X47">
-        <v>0.5675753312428429</v>
+        <v>0.3585702641326153</v>
       </c>
       <c r="Y47">
-        <v>0.5688540125627144</v>
+        <v>0.3056378024574812</v>
       </c>
       <c r="Z47">
-        <v>0.3</v>
+        <v>0.2322302972949676</v>
       </c>
       <c r="AA47">
         <v>0.2964852479966615</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>0.2964852479966615</v>
       </c>
-      <c r="BA47">
-        <v>0.2964852479966615</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.2275669591685476</v>
-      </c>
-      <c r="R48">
-        <v>0.2777164912143332</v>
-      </c>
-      <c r="S48">
-        <v>0.2683175240191228</v>
-      </c>
       <c r="T48">
-        <v>0.3183881288499228</v>
+        <v>0.2514186661311822</v>
       </c>
       <c r="U48">
-        <v>0.3457079482371522</v>
+        <v>0.2699240958347955</v>
       </c>
       <c r="V48">
-        <v>0.4966455940071838</v>
+        <v>0.2859213032233292</v>
       </c>
       <c r="W48">
-        <v>0.496182432882435</v>
+        <v>0.3093981795418731</v>
       </c>
       <c r="X48">
-        <v>0.5129191973456891</v>
+        <v>0.3384785431215676</v>
       </c>
       <c r="Y48">
-        <v>0.5148114689455074</v>
+        <v>0.3151655266119022</v>
       </c>
       <c r="Z48">
-        <v>0.4</v>
+        <v>0.2030634790274903</v>
       </c>
       <c r="AA48">
-        <v>0.200640962233612</v>
+        <v>0.2153775402324249</v>
       </c>
       <c r="AB48">
         <v>0.3</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>0.3</v>
       </c>
-      <c r="BA48">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.2746685886092088</v>
-      </c>
-      <c r="S49">
-        <v>0.2657133786376796</v>
-      </c>
       <c r="T49">
-        <v>0.2954833505873906</v>
+        <v>0.2510997769883971</v>
       </c>
       <c r="U49">
-        <v>0.3160114110782666</v>
+        <v>0.2684519933339428</v>
       </c>
       <c r="V49">
-        <v>0.4920780016587349</v>
+        <v>0.2813702039364325</v>
       </c>
       <c r="W49">
-        <v>0.4919048661372576</v>
+        <v>0.3021341818195052</v>
       </c>
       <c r="X49">
-        <v>0.456146270677174</v>
+        <v>0.3208173317294922</v>
       </c>
       <c r="Y49">
-        <v>0.4685917432526333</v>
+        <v>0.2983789950223231</v>
       </c>
       <c r="Z49">
-        <v>0.4</v>
+        <v>0.2528321886828219</v>
       </c>
       <c r="AA49">
-        <v>0.359010410915213</v>
+        <v>0.271823098319506</v>
       </c>
       <c r="AB49">
-        <v>0.2</v>
+        <v>0.2880436999211738</v>
       </c>
       <c r="AC49">
         <v>-0.1761138288871404</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>-0.1761138288871404</v>
       </c>
-      <c r="BA49">
-        <v>-0.1761138288871404</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.2732328347931109</v>
-      </c>
-      <c r="S50">
-        <v>0.2646388449560054</v>
-      </c>
-      <c r="T50">
-        <v>0.2900577676551785</v>
-      </c>
       <c r="U50">
-        <v>0.3078607291859687</v>
+        <v>0.2674389445333331</v>
       </c>
       <c r="V50">
-        <v>0.5038333362074613</v>
+        <v>0.2793987752770393</v>
       </c>
       <c r="W50">
-        <v>0.5029316929523397</v>
+        <v>0.2960018310781628</v>
       </c>
       <c r="X50">
-        <v>0.4678442899999056</v>
+        <v>0.3123095601120924</v>
       </c>
       <c r="Y50">
-        <v>0.3705817355643283</v>
+        <v>0.298025797050728</v>
       </c>
       <c r="Z50">
-        <v>0.3</v>
+        <v>0.2545596075706538</v>
       </c>
       <c r="AA50">
-        <v>0.3767545200690912</v>
+        <v>0.2621888512925107</v>
       </c>
       <c r="AB50">
-        <v>0.4</v>
+        <v>0.2868175665353744</v>
       </c>
       <c r="AC50">
-        <v>0.05926002605661465</v>
+        <v>0.1981433188297556</v>
       </c>
       <c r="AD50">
         <v>-0.02363626827304436</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>-0.02363626827304436</v>
       </c>
-      <c r="BA50">
-        <v>-0.02363626827304436</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.2722254679207061</v>
-      </c>
-      <c r="S51">
-        <v>0.2638804074262024</v>
-      </c>
-      <c r="T51">
-        <v>0.2837041299947448</v>
-      </c>
       <c r="U51">
-        <v>0.2988992630445952</v>
+        <v>0.2669493917657334</v>
       </c>
       <c r="V51">
-        <v>0.4025791938247211</v>
+        <v>0.2779766213882288</v>
       </c>
       <c r="W51">
-        <v>0.4055045160191009</v>
+        <v>0.2931120596217524</v>
       </c>
       <c r="X51">
-        <v>0.380412342279444</v>
+        <v>0.3060670042926236</v>
       </c>
       <c r="Y51">
-        <v>0.3262538681873476</v>
+        <v>0.2936118443440894</v>
       </c>
       <c r="Z51">
-        <v>0.3</v>
+        <v>0.266605945189995</v>
       </c>
       <c r="AA51">
-        <v>0.3828861142135864</v>
+        <v>0.2739195160839648</v>
       </c>
       <c r="AB51">
-        <v>0.4</v>
+        <v>0.2838337204146245</v>
       </c>
       <c r="AC51">
-        <v>0.2807515181827449</v>
+        <v>0.1510943922916654</v>
       </c>
       <c r="AD51">
-        <v>0.3189663067150342</v>
+        <v>0.1052901163751442</v>
       </c>
       <c r="AE51">
         <v>0.6810025317521822</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>0.6810025317521822</v>
       </c>
-      <c r="BA51">
-        <v>0.6810025317521822</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.27170353924067</v>
-      </c>
-      <c r="S52">
-        <v>0.2635269765310385</v>
-      </c>
-      <c r="T52">
-        <v>0.2814818433941293</v>
-      </c>
-      <c r="U52">
-        <v>0.2953808730262496</v>
-      </c>
       <c r="V52">
-        <v>0.3869075555854066</v>
+        <v>0.277276268435897</v>
       </c>
       <c r="W52">
-        <v>0.3899849478120158</v>
+        <v>0.2910474967369456</v>
       </c>
       <c r="X52">
-        <v>0.3673762276828282</v>
+        <v>0.3026821408258641</v>
       </c>
       <c r="Y52">
-        <v>0.3249950267861221</v>
+        <v>0.2927774680116512</v>
       </c>
       <c r="Z52">
-        <v>0.3</v>
+        <v>0.2690981812710815</v>
       </c>
       <c r="AA52">
-        <v>0.3807588789380343</v>
+        <v>0.2736271007437738</v>
       </c>
       <c r="AB52">
-        <v>0.4</v>
+        <v>0.2830396554017405</v>
       </c>
       <c r="AC52">
-        <v>0.3806941027720563</v>
+        <v>0.2299149419574507</v>
       </c>
       <c r="AD52">
-        <v>0.3159175031966727</v>
+        <v>0.164231863833798</v>
       </c>
       <c r="AE52">
-        <v>-4.166357285191768</v>
+        <v>0.2887511777095013</v>
       </c>
       <c r="AF52">
         <v>-6.9</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>-6.9</v>
       </c>
-      <c r="BA52">
-        <v>-6.9</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.2796178811053647</v>
-      </c>
-      <c r="U53">
-        <v>0.2925098815631765</v>
-      </c>
-      <c r="V53">
-        <v>0.3550448826221795</v>
-      </c>
       <c r="W53">
-        <v>0.358727926547073</v>
+        <v>0.289959372487798</v>
       </c>
       <c r="X53">
-        <v>0.3413490717983523</v>
+        <v>0.300409108187624</v>
       </c>
       <c r="Y53">
-        <v>0.3240118054298473</v>
+        <v>0.2914920603180789</v>
       </c>
       <c r="Z53">
-        <v>0.3</v>
+        <v>0.2723728594089641</v>
       </c>
       <c r="AA53">
-        <v>0.3796779052205806</v>
+        <v>0.2763548393188059</v>
       </c>
       <c r="AB53">
-        <v>0.4</v>
+        <v>0.2822116532700701</v>
       </c>
       <c r="AC53">
-        <v>0.380856562270071</v>
+        <v>0.2323479184656286</v>
       </c>
       <c r="AD53">
-        <v>0.3600034401827961</v>
+        <v>0.2046561083706011</v>
       </c>
       <c r="AE53">
-        <v>2.15233699306513</v>
+        <v>0.3541447401262404</v>
       </c>
       <c r="AF53">
-        <v>4.5</v>
+        <v>4.729401638091318</v>
       </c>
       <c r="AG53">
         <v>4.729401638091318</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>4.729401638091318</v>
       </c>
-      <c r="BA53">
-        <v>4.729401638091318</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.2788121479235603</v>
-      </c>
-      <c r="U54">
-        <v>0.2911481463764783</v>
-      </c>
-      <c r="V54">
-        <v>0.3445811612658644</v>
-      </c>
-      <c r="W54">
-        <v>0.3482181227118306</v>
-      </c>
       <c r="X54">
-        <v>0.3330073458554867</v>
+        <v>0.2990995190117576</v>
       </c>
       <c r="Y54">
-        <v>0.3303998447671022</v>
+        <v>0.2910593174211232</v>
       </c>
       <c r="Z54">
-        <v>0.3</v>
+        <v>0.2735277773197051</v>
       </c>
       <c r="AA54">
-        <v>0.3860070158576962</v>
+        <v>0.2767480075377121</v>
       </c>
       <c r="AB54">
-        <v>0.4</v>
+        <v>0.281885995343835</v>
       </c>
       <c r="AC54">
-        <v>0.388851330571916</v>
+        <v>0.251037191927784</v>
       </c>
       <c r="AD54">
-        <v>0.3774009522357237</v>
+        <v>0.2256708540621404</v>
       </c>
       <c r="AE54">
-        <v>1.481155394230376</v>
+        <v>0.2920458596050629</v>
       </c>
       <c r="AF54">
-        <v>1.4</v>
+        <v>-8.246924160117254</v>
       </c>
       <c r="AG54">
-        <v>1.886912862621386</v>
+        <v>-0.8905127363963885</v>
       </c>
       <c r="AH54">
         <v>-0.8905127363963885</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>-0.8905127363963885</v>
       </c>
-      <c r="BA54">
-        <v>-0.8905127363963885</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.2782435559654849</v>
-      </c>
-      <c r="U55">
-        <v>0.2901914347585893</v>
-      </c>
-      <c r="V55">
-        <v>0.333514938743141</v>
-      </c>
-      <c r="W55">
-        <v>0.3371274230494179</v>
-      </c>
-      <c r="X55">
-        <v>0.32443311711364</v>
-      </c>
       <c r="Y55">
-        <v>0.3540161143407231</v>
+        <v>0.2906530560885748</v>
       </c>
       <c r="Z55">
-        <v>0.3305443978616905</v>
+        <v>0.2745005803392616</v>
       </c>
       <c r="AA55">
-        <v>0.3644637198775593</v>
+        <v>0.2774604655526473</v>
       </c>
       <c r="AB55">
-        <v>0.3706202667245831</v>
+        <v>0.2816382457481817</v>
       </c>
       <c r="AC55">
-        <v>0.3885461324288266</v>
+        <v>0.2547651429331211</v>
       </c>
       <c r="AD55">
-        <v>0.4922783302974122</v>
+        <v>0.2388220531356325</v>
       </c>
       <c r="AE55">
-        <v>1.647557843505905</v>
+        <v>0.2937979041552844</v>
       </c>
       <c r="AF55">
-        <v>1.2</v>
+        <v>8.795393947941911</v>
       </c>
       <c r="AG55">
-        <v>0.7897652626715228</v>
+        <v>0.3403080482461837</v>
       </c>
       <c r="AH55">
-        <v>0.890415263970624</v>
+        <v>-2.04269378128221</v>
       </c>
       <c r="AI55">
         <v>-2.04269378128221</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>-2.04269378128221</v>
       </c>
-      <c r="BA55">
-        <v>-2.04269378128221</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.2779665955896768</v>
-      </c>
-      <c r="U56">
-        <v>0.2896887174471153</v>
-      </c>
-      <c r="V56">
-        <v>0.3284468775354911</v>
-      </c>
-      <c r="W56">
-        <v>0.3319463162777309</v>
-      </c>
-      <c r="X56">
-        <v>0.3205920603462739</v>
-      </c>
-      <c r="Y56">
-        <v>0.3607406897807829</v>
-      </c>
       <c r="Z56">
-        <v>0.3380530525093701</v>
+        <v>0.2749415212173583</v>
       </c>
       <c r="AA56">
-        <v>0.3600813801391147</v>
+        <v>0.2776743246706567</v>
       </c>
       <c r="AB56">
-        <v>0.3634476786181359</v>
+        <v>0.2815203694281973</v>
       </c>
       <c r="AC56">
-        <v>0.3839934616104721</v>
+        <v>0.2597300097271663</v>
       </c>
       <c r="AD56">
-        <v>0.437394299595367</v>
+        <v>0.246077374969531</v>
       </c>
       <c r="AE56">
-        <v>1.076539169721176</v>
+        <v>0.2825219375055555</v>
       </c>
       <c r="AF56">
-        <v>1.1</v>
+        <v>-11.7331371949727</v>
       </c>
       <c r="AG56">
-        <v>0.7305601564710571</v>
+        <v>0.3110420809209691</v>
       </c>
       <c r="AH56">
-        <v>2.495988249296161</v>
+        <v>1.976047047051926</v>
       </c>
       <c r="AI56">
-        <v>2.336983955091966</v>
+        <v>2.093024636165651</v>
       </c>
       <c r="AJ56">
         <v>2.093024636165651</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>2.093024636165651</v>
       </c>
-      <c r="BA56">
-        <v>2.093024636165651</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.3243339918345619</v>
-      </c>
-      <c r="W57">
-        <v>0.3277320979249848</v>
-      </c>
-      <c r="X57">
-        <v>0.3175649560438699</v>
-      </c>
-      <c r="Y57">
-        <v>0.3659222237875124</v>
-      </c>
-      <c r="Z57">
-        <v>0.3432669779199579</v>
-      </c>
       <c r="AA57">
-        <v>0.3562185710151209</v>
+        <v>0.2778792564105714</v>
       </c>
       <c r="AB57">
-        <v>0.3581107064512952</v>
+        <v>0.281442749741574</v>
       </c>
       <c r="AC57">
-        <v>0.3839469372591236</v>
+        <v>0.261434938493987</v>
       </c>
       <c r="AD57">
-        <v>0.4168296169325709</v>
+        <v>0.2504345473031657</v>
       </c>
       <c r="AE57">
-        <v>0.4200401630530642</v>
+        <v>0.2809541065650505</v>
       </c>
       <c r="AF57">
-        <v>0.5</v>
+        <v>14.13392802246961</v>
       </c>
       <c r="AG57">
-        <v>0.4217816297432933</v>
+        <v>0.1806421955966549</v>
       </c>
       <c r="AH57">
-        <v>0.8714120827955725</v>
+        <v>-0.2280315978840582</v>
       </c>
       <c r="AI57">
-        <v>2.742864599878359</v>
+        <v>-0.2550166524386946</v>
       </c>
       <c r="AJ57">
-        <v>4.391677891925511</v>
+        <v>1.098535546956398</v>
       </c>
       <c r="AK57">
         <v>1.098535546956398</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>1.098535546956398</v>
       </c>
-      <c r="BA57">
-        <v>1.098535546956398</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.3221136468420482</v>
-      </c>
-      <c r="W58">
-        <v>0.3254187260065984</v>
-      </c>
-      <c r="X58">
-        <v>0.3159668937252197</v>
-      </c>
-      <c r="Y58">
-        <v>0.3681953880036334</v>
-      </c>
-      <c r="Z58">
-        <v>0.3453766740801498</v>
-      </c>
-      <c r="AA58">
-        <v>0.3547147544220517</v>
-      </c>
       <c r="AB58">
-        <v>0.3559323309919812</v>
+        <v>0.281402141672456</v>
       </c>
       <c r="AC58">
-        <v>0.3917425154021957</v>
+        <v>0.2628748389874705</v>
       </c>
       <c r="AD58">
-        <v>0.3802778868473889</v>
+        <v>0.2529049856380554</v>
       </c>
       <c r="AE58">
-        <v>0.3833484498995017</v>
+        <v>0.2785897793627965</v>
       </c>
       <c r="AF58">
-        <v>0.4</v>
+        <v>-17.6967396745822</v>
       </c>
       <c r="AG58">
-        <v>0.4509974885443739</v>
+        <v>0.2583802240087155</v>
       </c>
       <c r="AH58">
-        <v>0.7043245682335879</v>
+        <v>-0.01188873776539434</v>
       </c>
       <c r="AI58">
-        <v>1.215650783272821</v>
+        <v>-0.03919398230864268</v>
       </c>
       <c r="AJ58">
-        <v>1.582278392647865</v>
+        <v>-0.939697281472779</v>
       </c>
       <c r="AK58">
-        <v>1.62628191336384</v>
+        <v>-0.4717175472572421</v>
       </c>
       <c r="AL58">
         <v>-0.4717175472572421</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>-0.4717175472572421</v>
       </c>
-      <c r="BA58">
-        <v>-0.4717175472572421</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.320521761970192</v>
-      </c>
-      <c r="W59">
-        <v>0.3237511924561162</v>
-      </c>
-      <c r="X59">
-        <v>0.3148533595126639</v>
-      </c>
-      <c r="Y59">
-        <v>0.3695270598064471</v>
-      </c>
-      <c r="Z59">
-        <v>0.3464702283320589</v>
-      </c>
-      <c r="AA59">
-        <v>0.3538486164108163</v>
-      </c>
-      <c r="AB59">
-        <v>0.3547491194069401</v>
-      </c>
       <c r="AC59">
-        <v>0.3592335521036639</v>
+        <v>0.2635139394675092</v>
       </c>
       <c r="AD59">
-        <v>0.3539355645948711</v>
+        <v>0.254361107111528</v>
       </c>
       <c r="AE59">
-        <v>0.3649680733896082</v>
+        <v>0.2779004720892539</v>
       </c>
       <c r="AF59">
-        <v>0.3117853208470784</v>
+        <v>21.96127463315758</v>
       </c>
       <c r="AG59">
-        <v>0.4503388544697629</v>
+        <v>0.2297017832367709</v>
       </c>
       <c r="AH59">
-        <v>0.4840764599636884</v>
+        <v>0.4974234372031783</v>
       </c>
       <c r="AI59">
-        <v>0.5010063547625094</v>
+        <v>0.5642703784499429</v>
       </c>
       <c r="AJ59">
-        <v>0.4723947778804813</v>
+        <v>0.7209884825654325</v>
       </c>
       <c r="AK59">
-        <v>1.492154102148817</v>
+        <v>0.4399710890799567</v>
       </c>
       <c r="AL59">
-        <v>-0.2225254110740877</v>
+        <v>0.9401304606753627</v>
       </c>
       <c r="AM59">
         <v>0.9401304606753627</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>0.9401304606753627</v>
       </c>
-      <c r="BA59">
-        <v>0.9401304606753627</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.3195884811293277</v>
-      </c>
-      <c r="W60">
-        <v>0.3227594098881734</v>
-      </c>
-      <c r="X60">
-        <v>0.3142155124447381</v>
-      </c>
-      <c r="Y60">
-        <v>0.3701929385026079</v>
-      </c>
-      <c r="Z60">
-        <v>0.3469716875636382</v>
-      </c>
-      <c r="AA60">
-        <v>0.3534435924237279</v>
-      </c>
-      <c r="AB60">
-        <v>0.3541943789429063</v>
-      </c>
-      <c r="AC60">
-        <v>0.3520802155454785</v>
-      </c>
       <c r="AD60">
-        <v>0.3533741651023407</v>
+        <v>0.2551971223516865</v>
       </c>
       <c r="AE60">
-        <v>0.3691102163175488</v>
+        <v>0.2773441512510963</v>
       </c>
       <c r="AF60">
-        <v>0.360169848374541</v>
+        <v>-27.12826790561298</v>
       </c>
       <c r="AG60">
-        <v>0.4576041502323562</v>
+        <v>0.236741064584864</v>
       </c>
       <c r="AH60">
-        <v>0.4781741445810184</v>
+        <v>0.1119404149010819</v>
       </c>
       <c r="AI60">
-        <v>0.4989125491646149</v>
+        <v>0.1037837111177365</v>
       </c>
       <c r="AJ60">
-        <v>0.5077920679136696</v>
+        <v>0.3718711444791921</v>
       </c>
       <c r="AK60">
-        <v>1.054635646560769</v>
+        <v>0.3976784974175321</v>
       </c>
       <c r="AL60">
-        <v>2.222186417257333</v>
+        <v>0.08871908552637428</v>
       </c>
       <c r="AM60">
-        <v>0.8685215827627815</v>
+        <v>0.6392725048137464</v>
       </c>
       <c r="AN60">
         <v>0.6392725048137464</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>0.6392725048137464</v>
       </c>
-      <c r="BA60">
-        <v>0.6392725048137464</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.3705551263214988</v>
-      </c>
-      <c r="Z61">
-        <v>0.3472155448716928</v>
-      </c>
-      <c r="AA61">
-        <v>0.3532329910178186</v>
-      </c>
-      <c r="AB61">
-        <v>0.3539145328419799</v>
-      </c>
-      <c r="AC61">
-        <v>0.3551852045226096</v>
-      </c>
-      <c r="AD61">
-        <v>0.3567775563058252</v>
-      </c>
       <c r="AE61">
-        <v>0.3689202733070383</v>
+        <v>0.2771222616751784</v>
       </c>
       <c r="AF61">
-        <v>0.3526381412057293</v>
+        <v>33.84350102260128</v>
       </c>
       <c r="AG61">
-        <v>0.4257924623217235</v>
+        <v>0.2361599370065708</v>
       </c>
       <c r="AH61">
-        <v>0.443973016786245</v>
+        <v>0.2064716386605581</v>
       </c>
       <c r="AI61">
-        <v>0.4829428710582278</v>
+        <v>0.2118679630730566</v>
       </c>
       <c r="AJ61">
-        <v>0.4859741297814253</v>
+        <v>0.0109767305752112</v>
       </c>
       <c r="AK61">
-        <v>0.763664816755977</v>
+        <v>0.1138827837459227</v>
       </c>
       <c r="AL61">
-        <v>1.590577661787918</v>
+        <v>0.1540554981516485</v>
       </c>
       <c r="AM61">
-        <v>0.8758972888431202</v>
+        <v>-0.1805815915538733</v>
       </c>
       <c r="AN61">
-        <v>0.9101362091664953</v>
+        <v>0.06357296580725347</v>
       </c>
       <c r="AO61">
         <v>0.06357296580725347</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>0.06357296580725347</v>
       </c>
-      <c r="BA61">
-        <v>0.06357296580725347</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.370743369256549</v>
-      </c>
-      <c r="Z62">
-        <v>0.3473307869775867</v>
-      </c>
-      <c r="AA62">
-        <v>0.3531293854367271</v>
-      </c>
-      <c r="AB62">
-        <v>0.3537785048918856</v>
-      </c>
-      <c r="AC62">
-        <v>0.3567446155748462</v>
-      </c>
-      <c r="AD62">
-        <v>0.3575560274920452</v>
-      </c>
-      <c r="AE62">
-        <v>0.3688369323517562</v>
-      </c>
       <c r="AF62">
-        <v>0.3492068002629111</v>
+        <v>-41.7512074936301</v>
       </c>
       <c r="AG62">
-        <v>0.4267124205091619</v>
+        <v>0.2356497196812954</v>
       </c>
       <c r="AH62">
-        <v>0.4360535202858387</v>
+        <v>0.259667924866874</v>
       </c>
       <c r="AI62">
-        <v>0.4406133270943542</v>
+        <v>0.2874871938444489</v>
       </c>
       <c r="AJ62">
-        <v>0.4477792009785162</v>
+        <v>0.3660062997265884</v>
       </c>
       <c r="AK62">
-        <v>0.4940156763700401</v>
+        <v>0.3079667646043336</v>
       </c>
       <c r="AL62">
-        <v>0.6195603957594784</v>
+        <v>0.3995527613645654</v>
       </c>
       <c r="AM62">
-        <v>0.9485751873298511</v>
+        <v>0.4412120519699382</v>
       </c>
       <c r="AN62">
-        <v>0.9083642108498111</v>
+        <v>0.3011481654680476</v>
       </c>
       <c r="AO62">
-        <v>-0.4413498804506304</v>
+        <v>-1.012166871044968</v>
       </c>
       <c r="AP62">
         <v>-1.012166871044968</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>-1.012166871044968</v>
       </c>
-      <c r="BA62">
-        <v>-1.012166871044968</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.3708436200066846</v>
-      </c>
-      <c r="Z63">
-        <v>0.3473860064922799</v>
-      </c>
-      <c r="AA63">
-        <v>0.3530769394696417</v>
-      </c>
-      <c r="AB63">
-        <v>0.3537111396542174</v>
-      </c>
-      <c r="AC63">
-        <v>0.3566121245872109</v>
-      </c>
-      <c r="AD63">
-        <v>0.3572622286632438</v>
-      </c>
-      <c r="AE63">
-        <v>0.3688563715280392</v>
-      </c>
       <c r="AF63">
-        <v>0.3515726902714134</v>
+        <v>52.0614615153099</v>
       </c>
       <c r="AG63">
-        <v>0.3302542072794329</v>
+        <v>0.2360096391741615</v>
       </c>
       <c r="AH63">
-        <v>0.3250037401782671</v>
+        <v>0.1983149393202189</v>
       </c>
       <c r="AI63">
-        <v>0.283450593752575</v>
+        <v>0.2041162041516174</v>
       </c>
       <c r="AJ63">
-        <v>0.352620676814494</v>
+        <v>0.2649897937751728</v>
       </c>
       <c r="AK63">
-        <v>0.2588885315173428</v>
+        <v>0.281764948959584</v>
       </c>
       <c r="AL63">
-        <v>0.4132979269908503</v>
+        <v>0.2214424975171575</v>
       </c>
       <c r="AM63">
-        <v>0.8160952428960684</v>
+        <v>0.3268328167410344</v>
       </c>
       <c r="AN63">
-        <v>0.7187443158400413</v>
+        <v>0.3458643936466589</v>
       </c>
       <c r="AO63">
-        <v>-0.5523129130547062</v>
+        <v>1.141161751447788</v>
       </c>
       <c r="AP63">
-        <v>-0.540555411668791</v>
+        <v>-0.5703626997413522</v>
       </c>
       <c r="AQ63">
         <v>-0.5703626997413522</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>-0.5703626997413522</v>
       </c>
-      <c r="BA63">
-        <v>-0.5703626997413522</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.3708963136027537</v>
-      </c>
-      <c r="Z64">
-        <v>0.3474122885683457</v>
-      </c>
-      <c r="AA64">
-        <v>0.3530507816738598</v>
-      </c>
-      <c r="AB64">
-        <v>0.3536780908249407</v>
-      </c>
-      <c r="AC64">
-        <v>0.3563741176654198</v>
-      </c>
-      <c r="AD64">
-        <v>0.3570974951408433</v>
-      </c>
-      <c r="AE64">
-        <v>0.3688553986913975</v>
-      </c>
-      <c r="AF64">
-        <v>0.3510872102400784</v>
-      </c>
       <c r="AG64">
-        <v>0.3699085930291098</v>
+        <v>0.2358656865778908</v>
       </c>
       <c r="AH64">
-        <v>0.3800685692808576</v>
+        <v>0.2215277378101468</v>
       </c>
       <c r="AI64">
-        <v>0.36290379677698</v>
+        <v>0.2343390803227316</v>
       </c>
       <c r="AJ64">
-        <v>0.389166849150905</v>
+        <v>0.2047934221613974</v>
       </c>
       <c r="AK64">
-        <v>0.2464362971959133</v>
+        <v>0.2322380148799898</v>
       </c>
       <c r="AL64">
-        <v>0.3224184563841419</v>
+        <v>0.2519175003446497</v>
       </c>
       <c r="AM64">
-        <v>0.7559691459660911</v>
+        <v>0.1873479491368965</v>
       </c>
       <c r="AN64">
-        <v>0.7577209816920742</v>
+        <v>0.23710757315168</v>
       </c>
       <c r="AO64">
-        <v>0.05668449083771065</v>
+        <v>0.152721884367544</v>
       </c>
       <c r="AP64">
-        <v>0.01558569464903314</v>
+        <v>1.136231897945076</v>
       </c>
       <c r="AQ64">
-        <v>0.1092137953084631</v>
+        <v>0.2394101325822788</v>
       </c>
       <c r="AR64">
         <v>0.2394101325822788</v>
@@ -8950,61 +8065,43 @@
       <c r="AZ64">
         <v>0.2394101325822788</v>
       </c>
-      <c r="BA64">
-        <v>0.2394101325822788</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.3563476627190445</v>
-      </c>
-      <c r="AD65">
-        <v>0.3571026980294381</v>
-      </c>
-      <c r="AE65">
-        <v>0.3688550213857131</v>
-      </c>
-      <c r="AF65">
-        <v>0.3509660564876155</v>
-      </c>
-      <c r="AG65">
-        <v>0.3732475133630217</v>
-      </c>
       <c r="AH65">
-        <v>0.3596712336532297</v>
+        <v>0.2248286948166326</v>
       </c>
       <c r="AI65">
-        <v>0.3598523456043715</v>
+        <v>0.2411068408901297</v>
       </c>
       <c r="AJ65">
-        <v>0.3922443416094225</v>
+        <v>0.2790909257385073</v>
       </c>
       <c r="AK65">
-        <v>0.2044770914027652</v>
+        <v>0.2725203112955114</v>
       </c>
       <c r="AL65">
-        <v>0.2597074994072273</v>
+        <v>0.2925884529644522</v>
       </c>
       <c r="AM65">
-        <v>0.4925708962429951</v>
+        <v>0.3146742288431746</v>
       </c>
       <c r="AN65">
-        <v>0.6352921657706929</v>
+        <v>0.2907576924492151</v>
       </c>
       <c r="AO65">
-        <v>0.382795381634125</v>
+        <v>0.03863126977183218</v>
       </c>
       <c r="AP65">
-        <v>0.5425549694623157</v>
+        <v>-0.02565387101640518</v>
       </c>
       <c r="AQ65">
-        <v>0.4700852912778544</v>
+        <v>0.475162389432635</v>
       </c>
       <c r="AR65">
-        <v>0.135418833948961</v>
+        <v>-0.04072131480353391</v>
       </c>
       <c r="AS65">
         <v>-0.04072131480353391</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>-0.04072131480353391</v>
       </c>
-      <c r="BA65">
-        <v>-0.04072131480353391</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.3563752482607582</v>
-      </c>
-      <c r="AD66">
-        <v>0.3571257824415</v>
-      </c>
-      <c r="AE66">
-        <v>0.3688551125422009</v>
-      </c>
-      <c r="AF66">
-        <v>0.3510787594893436</v>
-      </c>
-      <c r="AG66">
-        <v>0.3637620725130149</v>
-      </c>
-      <c r="AH66">
-        <v>0.3663901257120979</v>
-      </c>
       <c r="AI66">
-        <v>0.3447090497163963</v>
+        <v>0.2271365649832097</v>
       </c>
       <c r="AJ66">
-        <v>0.38556028580916</v>
+        <v>0.2525485587689101</v>
       </c>
       <c r="AK66">
-        <v>0.2044083835440773</v>
+        <v>0.2638884168602442</v>
       </c>
       <c r="AL66">
-        <v>0.2596676528910109</v>
+        <v>0.2564564277225002</v>
       </c>
       <c r="AM66">
-        <v>0.3496109517311794</v>
+        <v>0.2815733203970635</v>
       </c>
       <c r="AN66">
-        <v>0.431289263666585</v>
+        <v>0.293658015145922</v>
       </c>
       <c r="AO66">
-        <v>0.5880519476376662</v>
+        <v>0.4487005065700892</v>
       </c>
       <c r="AP66">
-        <v>0.5378115933798711</v>
+        <v>0.1197053507640141</v>
       </c>
       <c r="AQ66">
-        <v>0.5859800679090483</v>
+        <v>0.09505496964941233</v>
       </c>
       <c r="AR66">
-        <v>0.4228047902771834</v>
+        <v>0.3796431459725694</v>
       </c>
       <c r="AS66">
-        <v>0.3498755835453267</v>
+        <v>-0.07958838003274593</v>
       </c>
       <c r="AT66">
         <v>-0.07958838003274593</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>-0.07958838003274593</v>
       </c>
-      <c r="BA66">
-        <v>-0.07958838003274593</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.3563840306891594</v>
-      </c>
-      <c r="AD67">
-        <v>0.357129858764327</v>
-      </c>
-      <c r="AE67">
-        <v>0.3688551076034225</v>
-      </c>
-      <c r="AF67">
-        <v>0.3510500126409013</v>
-      </c>
-      <c r="AG67">
-        <v>0.3669975177672768</v>
-      </c>
-      <c r="AH67">
-        <v>0.364312620832883</v>
-      </c>
-      <c r="AI67">
-        <v>0.3521511935161517</v>
-      </c>
       <c r="AJ67">
-        <v>0.3872297606177457</v>
+        <v>0.2434239259885503</v>
       </c>
       <c r="AK67">
-        <v>0.4530833558123126</v>
+        <v>0.2556310454907781</v>
       </c>
       <c r="AL67">
-        <v>0.385540961908284</v>
+        <v>0.2657171691709724</v>
       </c>
       <c r="AM67">
-        <v>0.2915626231043511</v>
+        <v>0.2591409225307153</v>
       </c>
       <c r="AN67">
-        <v>0.1962998866928932</v>
+        <v>0.2736511661045581</v>
       </c>
       <c r="AO67">
-        <v>0.6504644380763409</v>
+        <v>0.2294104543922647</v>
       </c>
       <c r="AP67">
-        <v>0.5509036232411972</v>
+        <v>0.406567427048072</v>
       </c>
       <c r="AQ67">
-        <v>0.5977696827513626</v>
+        <v>0.244638476511303</v>
       </c>
       <c r="AR67">
-        <v>0.4670600820553261</v>
+        <v>0.2196572301354363</v>
       </c>
       <c r="AS67">
-        <v>0.426465400382952</v>
+        <v>0.4750971168091367</v>
       </c>
       <c r="AT67">
-        <v>0.1852825741506052</v>
+        <v>0.02912383308249389</v>
       </c>
       <c r="AU67">
         <v>0.02912383308249389</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>0.02912383308249389</v>
       </c>
-      <c r="BA67">
-        <v>0.02912383308249389</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.3563819038723292</v>
-      </c>
-      <c r="AD68">
-        <v>0.3571276171611509</v>
-      </c>
-      <c r="AE68">
-        <v>0.3688551058980507</v>
-      </c>
-      <c r="AF68">
-        <v>0.3510464774763166</v>
-      </c>
-      <c r="AG68">
-        <v>0.3676001509006983</v>
-      </c>
-      <c r="AH68">
-        <v>0.3649302447902866</v>
-      </c>
-      <c r="AI68">
-        <v>0.3519531591897943</v>
-      </c>
-      <c r="AJ68">
-        <v>0.3877345091853842</v>
-      </c>
       <c r="AK68">
-        <v>0.3372386860731305</v>
+        <v>0.2637994578412071</v>
       </c>
       <c r="AL68">
-        <v>0.318553556492325</v>
+        <v>0.272010558460976</v>
       </c>
       <c r="AM68">
-        <v>0.3643946631997842</v>
+        <v>0.2846302257991071</v>
       </c>
       <c r="AN68">
-        <v>0.3903546869518856</v>
+        <v>0.285324501964021</v>
       </c>
       <c r="AO68">
-        <v>0.6684365430787267</v>
+        <v>0.2272478695996928</v>
       </c>
       <c r="AP68">
-        <v>0.4543866843184787</v>
+        <v>0.1883974775291561</v>
       </c>
       <c r="AQ68">
-        <v>0.5277788761421647</v>
+        <v>0.2721330930013965</v>
       </c>
       <c r="AR68">
-        <v>0.4439701853026605</v>
+        <v>0.1881056083120944</v>
       </c>
       <c r="AS68">
-        <v>0.4805475651659776</v>
+        <v>0.1675084105024545</v>
       </c>
       <c r="AT68">
-        <v>0.3271982582410118</v>
+        <v>0.4097258911784077</v>
       </c>
       <c r="AU68">
-        <v>0.213735171386304</v>
+        <v>-0.1311265493919933</v>
       </c>
       <c r="AV68">
         <v>-0.1311265493919933</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>-0.1311265493919933</v>
       </c>
-      <c r="BA68">
-        <v>-0.1311265493919933</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.3666898299982267</v>
-      </c>
-      <c r="AH69">
-        <v>0.3647514386609829</v>
-      </c>
-      <c r="AI69">
-        <v>0.3504952666202296</v>
-      </c>
-      <c r="AJ69">
-        <v>0.3873120895872629</v>
-      </c>
-      <c r="AK69">
-        <v>0.352608392714219</v>
-      </c>
       <c r="AL69">
-        <v>0.3191112986979238</v>
+        <v>0.2648872368932385</v>
       </c>
       <c r="AM69">
-        <v>0.3388750124608713</v>
+        <v>0.2761323167414447</v>
       </c>
       <c r="AN69">
-        <v>0.3444064787880068</v>
+        <v>0.284716959603979</v>
       </c>
       <c r="AO69">
-        <v>0.6279552168995792</v>
+        <v>0.3036407946913537</v>
       </c>
       <c r="AP69">
-        <v>0.3879360997973009</v>
+        <v>0.2264958790924941</v>
       </c>
       <c r="AQ69">
-        <v>0.4157236753635942</v>
+        <v>0.2112291190004797</v>
       </c>
       <c r="AR69">
-        <v>0.3613765111568341</v>
+        <v>0.2534455695079425</v>
       </c>
       <c r="AS69">
-        <v>0.4787206853214911</v>
+        <v>0.1813588952757612</v>
       </c>
       <c r="AT69">
-        <v>0.4732566433383028</v>
+        <v>0.1600847858098464</v>
       </c>
       <c r="AU69">
-        <v>0.5133382770071933</v>
+        <v>0.4498691273112438</v>
       </c>
       <c r="AV69">
-        <v>0.3112798309706193</v>
+        <v>-0.03907468377752821</v>
       </c>
       <c r="AW69">
         <v>-0.03907468377752821</v>
@@ -9338,64 +8345,43 @@
       <c r="AZ69">
         <v>-0.03907468377752821</v>
       </c>
-      <c r="BA69">
-        <v>-0.03907468377752821</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.3669426493023116</v>
-      </c>
-      <c r="AH70">
-        <v>0.3648022326452076</v>
-      </c>
-      <c r="AI70">
-        <v>0.3511918449738303</v>
-      </c>
-      <c r="AJ70">
-        <v>0.3873692531655132</v>
-      </c>
-      <c r="AK70">
-        <v>0.3634300892821136</v>
-      </c>
-      <c r="AL70">
-        <v>0.3374927151087979</v>
-      </c>
       <c r="AM70">
-        <v>0.3332550763855244</v>
+        <v>0.2728268935780674</v>
       </c>
       <c r="AN70">
-        <v>0.316072056016585</v>
+        <v>0.2811473182094438</v>
       </c>
       <c r="AO70">
-        <v>0.6083095162344989</v>
+        <v>0.2562563903547118</v>
       </c>
       <c r="AP70">
-        <v>0.3332338360610123</v>
+        <v>0.2739046950728806</v>
       </c>
       <c r="AQ70">
-        <v>0.3025808218644528</v>
+        <v>0.2382862493372211</v>
       </c>
       <c r="AR70">
-        <v>0.3017570831579661</v>
+        <v>0.2250449981007253</v>
       </c>
       <c r="AS70">
-        <v>0.3537720085311093</v>
+        <v>0.2638098488487471</v>
       </c>
       <c r="AT70">
-        <v>0.4779649326659836</v>
+        <v>0.191855517945799</v>
       </c>
       <c r="AU70">
-        <v>0.573644981045291</v>
+        <v>0.164562912626795</v>
       </c>
       <c r="AV70">
-        <v>0.4274987664252308</v>
+        <v>0.4262780977787256</v>
       </c>
       <c r="AW70">
-        <v>0.2405057859081126</v>
+        <v>0.1771324545010202</v>
       </c>
       <c r="AX70">
         <v>0.1771324545010202</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>0.1771324545010202</v>
       </c>
-      <c r="BA70">
-        <v>0.1771324545010202</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.3670243122331973</v>
-      </c>
-      <c r="AH71">
-        <v>0.3647880050444007</v>
-      </c>
-      <c r="AI71">
-        <v>0.3511817259706729</v>
-      </c>
-      <c r="AJ71">
-        <v>0.3874166955332383</v>
-      </c>
-      <c r="AK71">
-        <v>0.356002558632745</v>
-      </c>
-      <c r="AL71">
-        <v>0.327553332037213</v>
-      </c>
-      <c r="AM71">
-        <v>0.3435461352276171</v>
-      </c>
       <c r="AN71">
-        <v>0.3455193624813802</v>
+        <v>0.2836111494590016</v>
       </c>
       <c r="AO71">
-        <v>-0.02790656681469597</v>
+        <v>0.259968564867192</v>
       </c>
       <c r="AP71">
-        <v>0.1577644560278798</v>
+        <v>0.2333210722050997</v>
       </c>
       <c r="AQ71">
-        <v>0.1740277648074135</v>
+        <v>0.2408998620364899</v>
       </c>
       <c r="AR71">
-        <v>0.1640603760550066</v>
+        <v>0.2221789823516836</v>
       </c>
       <c r="AS71">
-        <v>0.3909357362740877</v>
+        <v>0.2123188016949852</v>
       </c>
       <c r="AT71">
-        <v>0.4646018452379082</v>
+        <v>0.2465701375275392</v>
       </c>
       <c r="AU71">
-        <v>0.5155211112989804</v>
+        <v>0.1595345017325521</v>
       </c>
       <c r="AV71">
-        <v>0.4838086506235157</v>
+        <v>0.1346744133415151</v>
       </c>
       <c r="AW71">
-        <v>0.3676551489827347</v>
+        <v>0.2700702694620747</v>
       </c>
       <c r="AX71">
-        <v>0.2279904507301893</v>
+        <v>0.4946531409412387</v>
       </c>
       <c r="AY71">
         <v>0.4946531409412387</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>0.4946531409412387</v>
       </c>
-      <c r="BA71">
-        <v>0.4946531409412387</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.3669388988404078</v>
-      </c>
-      <c r="AH72">
-        <v>0.3647919476217221</v>
-      </c>
-      <c r="AI72">
-        <v>0.351041484558183</v>
-      </c>
-      <c r="AJ72">
-        <v>0.3873925350206023</v>
-      </c>
-      <c r="AK72">
-        <v>0.3577831486502061</v>
-      </c>
-      <c r="AL72">
-        <v>0.3277184201860741</v>
-      </c>
-      <c r="AM72">
-        <v>0.3392239243658682</v>
-      </c>
-      <c r="AN72">
-        <v>0.3364717151470469</v>
-      </c>
       <c r="AO72">
-        <v>0.3453840980389908</v>
+        <v>0.273842731806514</v>
       </c>
       <c r="AP72">
-        <v>0.273013565478785</v>
+        <v>0.2423228017178632</v>
       </c>
       <c r="AQ72">
-        <v>0.278970074405484</v>
+        <v>0.2312518544258454</v>
       </c>
       <c r="AR72">
-        <v>0.2607845787311421</v>
+        <v>0.2322001712824991</v>
       </c>
       <c r="AS72">
-        <v>0.319281154842372</v>
+        <v>0.2176958876796387</v>
       </c>
       <c r="AT72">
-        <v>0.3645301695999876</v>
+        <v>0.2059680882448519</v>
       </c>
       <c r="AU72">
-        <v>0.4190221962266207</v>
+        <v>0.2448390848854628</v>
       </c>
       <c r="AV72">
-        <v>0.5412813295888554</v>
+        <v>0.1667155886302076</v>
       </c>
       <c r="AW72">
-        <v>0.4734559960938327</v>
+        <v>0.1552252763593431</v>
       </c>
       <c r="AX72">
-        <v>0.1849169439068561</v>
+        <v>0.03247524812678301</v>
       </c>
       <c r="AY72">
-        <v>0.1990696131607024</v>
+        <v>0.202428137729683</v>
       </c>
       <c r="AZ72">
         <v>0.202428137729683</v>
       </c>
-      <c r="BA72">
-        <v>0.202428137729683</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.3581065467814773</v>
-      </c>
-      <c r="AL73">
-        <v>0.3304019747807638</v>
-      </c>
-      <c r="AM73">
-        <v>0.3388392055878172</v>
-      </c>
-      <c r="AN73">
-        <v>0.3333753059157584</v>
-      </c>
-      <c r="AO73">
-        <v>0.315598266674664</v>
-      </c>
       <c r="AP73">
-        <v>0.2581331674400832</v>
+        <v>0.2499975649290364</v>
       </c>
       <c r="AQ73">
-        <v>0.2564646279995655</v>
+        <v>0.2360616119139204</v>
       </c>
       <c r="AR73">
-        <v>0.2456641813991946</v>
+        <v>0.2272630521388298</v>
       </c>
       <c r="AS73">
-        <v>0.2741788906527916</v>
+        <v>0.229739352335835</v>
       </c>
       <c r="AT73">
-        <v>0.3025406062424594</v>
+        <v>0.2132342106629785</v>
       </c>
       <c r="AU73">
-        <v>0.3764147475960868</v>
+        <v>0.1976036862109622</v>
       </c>
       <c r="AV73">
-        <v>0.4622319904762406</v>
+        <v>0.2324745626844525</v>
       </c>
       <c r="AW73">
-        <v>0.4925370239720905</v>
+        <v>0.193856048799281</v>
       </c>
       <c r="AX73">
-        <v>0.173061456201637</v>
+        <v>0.2040866914602586</v>
       </c>
       <c r="AY73">
-        <v>0.2337545778102594</v>
+        <v>0.09718250996329186</v>
       </c>
       <c r="AZ73">
-        <v>0.2091964520081717</v>
-      </c>
-      <c r="BA73">
         <v>0.208573386070384</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.3576794817816654</v>
-      </c>
-      <c r="AL74">
-        <v>0.3289275686844176</v>
-      </c>
-      <c r="AM74">
-        <v>0.3402580795982097</v>
-      </c>
-      <c r="AN74">
-        <v>0.3377340457733518</v>
-      </c>
-      <c r="AO74">
-        <v>0.223749667237627</v>
-      </c>
-      <c r="AP74">
-        <v>0.2334168606369258</v>
-      </c>
       <c r="AQ74">
-        <v>0.239168984455897</v>
+        <v>0.2361720168593853</v>
       </c>
       <c r="AR74">
-        <v>0.2259078849669754</v>
+        <v>0.2271588752595907</v>
       </c>
       <c r="AS74">
-        <v>0.2546306145781045</v>
+        <v>0.2212322356562582</v>
       </c>
       <c r="AT74">
-        <v>0.2550901149025435</v>
+        <v>0.2209314870978294</v>
       </c>
       <c r="AU74">
-        <v>0.3492089449854063</v>
+        <v>0.1999163014490621</v>
       </c>
       <c r="AV74">
-        <v>0.4193118919374257</v>
+        <v>0.1857845676890034</v>
       </c>
       <c r="AW74">
-        <v>0.4077373162851217</v>
+        <v>0.2048347656185597</v>
       </c>
       <c r="AX74">
-        <v>0.1595059306361861</v>
+        <v>0.2393655409018256</v>
       </c>
       <c r="AY74">
-        <v>0.2161401290728548</v>
+        <v>0.2406294341530801</v>
       </c>
       <c r="AZ74">
-        <v>0.2727013282155326</v>
-      </c>
-      <c r="BA74">
-        <v>0.2674348167636964</v>
+        <v>0.1667542062390363</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.3578282470163012</v>
-      </c>
-      <c r="AL75">
-        <v>0.3289640869637133</v>
-      </c>
-      <c r="AM75">
-        <v>0.3395539332681249</v>
-      </c>
-      <c r="AN75">
-        <v>0.3360838671514911</v>
-      </c>
-      <c r="AO75">
-        <v>0.2855138128748831</v>
-      </c>
-      <c r="AP75">
-        <v>0.2517148146875581</v>
-      </c>
-      <c r="AQ75">
-        <v>0.2553703508769001</v>
-      </c>
       <c r="AR75">
-        <v>0.2417170996080384</v>
+        <v>0.2286736075803938</v>
       </c>
       <c r="AS75">
-        <v>0.2037048087336635</v>
+        <v>0.222584679512992</v>
       </c>
       <c r="AT75">
-        <v>0.1735954424726278</v>
+        <v>0.2144028749496398</v>
       </c>
       <c r="AU75">
-        <v>0.103156902399412</v>
+        <v>0.2122442557416764</v>
       </c>
       <c r="AV75">
-        <v>0.02024937607431532</v>
+        <v>0.1934359229182107</v>
       </c>
       <c r="AW75">
-        <v>0.3354512595522721</v>
+        <v>0.1875136456030645</v>
       </c>
       <c r="AX75">
-        <v>0.199939505555264</v>
+        <v>0.1699485319689579</v>
       </c>
       <c r="AY75">
-        <v>0.2156888846236882</v>
+        <v>0.189324025064693</v>
       </c>
       <c r="AZ75">
-        <v>0.36837357003823</v>
-      </c>
-      <c r="BA75">
-        <v>0.3555941873737254</v>
+        <v>0.1889759942061828</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.3578252309965276</v>
-      </c>
-      <c r="AL76">
-        <v>0.3293557621737368</v>
-      </c>
-      <c r="AM76">
-        <v>0.3395627390906402</v>
-      </c>
-      <c r="AN76">
-        <v>0.3358058532708662</v>
-      </c>
-      <c r="AO76">
-        <v>0.2766652050502358</v>
-      </c>
-      <c r="AP76">
-        <v>0.2484481574054699</v>
-      </c>
-      <c r="AQ76">
-        <v>0.2511665637474081</v>
-      </c>
-      <c r="AR76">
-        <v>0.2384368855014098</v>
-      </c>
       <c r="AS76">
-        <v>0.2387209448861843</v>
+        <v>0.2243075496695048</v>
       </c>
       <c r="AT76">
-        <v>0.2340225086797054</v>
+        <v>0.2158926336789236</v>
       </c>
       <c r="AU76">
-        <v>0.2505239512311727</v>
+        <v>0.2045397843599693</v>
       </c>
       <c r="AV76">
-        <v>0.2587693348359421</v>
+        <v>0.2025287743958788</v>
       </c>
       <c r="AW76">
-        <v>0.2962503972034511</v>
+        <v>0.1942114480779799</v>
       </c>
       <c r="AX76">
-        <v>0.2002906046748194</v>
+        <v>0.1992927480908936</v>
       </c>
       <c r="AY76">
-        <v>0.1866793869424725</v>
+        <v>0.1773726087110919</v>
       </c>
       <c r="AZ76">
-        <v>0.4341274761851395</v>
-      </c>
-      <c r="BA76">
-        <v>0.4043874803887348</v>
+        <v>0.1882972879189848</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.2637328715453863</v>
-      </c>
-      <c r="AP77">
-        <v>0.2450367227341773</v>
-      </c>
-      <c r="AQ77">
-        <v>0.248908242405751</v>
-      </c>
-      <c r="AR77">
-        <v>0.2356729416631354</v>
-      </c>
-      <c r="AS77">
-        <v>0.2333573848175879</v>
-      </c>
       <c r="AT77">
-        <v>0.2229245676109021</v>
+        <v>0.2169463168049132</v>
       </c>
       <c r="AU77">
-        <v>0.2367012902648589</v>
+        <v>0.2053752119642689</v>
       </c>
       <c r="AV77">
-        <v>0.2364883887715373</v>
+        <v>0.1951447695907866</v>
       </c>
       <c r="AW77">
-        <v>0.3012516515744039</v>
+        <v>0.1953718806889498</v>
       </c>
       <c r="AX77">
-        <v>0.1994419596136794</v>
+        <v>0.2025612133311479</v>
       </c>
       <c r="AY77">
-        <v>0.1686756851006805</v>
+        <v>0.1988517647606521</v>
       </c>
       <c r="AZ77">
-        <v>0.4179089119608506</v>
-      </c>
-      <c r="BA77">
-        <v>0.3774219881210286</v>
+        <v>0.1822718751761165</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.2737891744521533</v>
-      </c>
-      <c r="AP78">
-        <v>0.2479111786616753</v>
-      </c>
-      <c r="AQ78">
-        <v>0.2513854229039237</v>
-      </c>
-      <c r="AR78">
-        <v>0.2382273234405088</v>
-      </c>
-      <c r="AS78">
-        <v>0.2262666268579334</v>
-      </c>
-      <c r="AT78">
-        <v>0.2118296733778454</v>
-      </c>
       <c r="AU78">
-        <v>0.2027317795136487</v>
+        <v>0.207124466291109</v>
       </c>
       <c r="AV78">
-        <v>0.181576482558956</v>
+        <v>0.1967313473344939</v>
       </c>
       <c r="AW78">
-        <v>0.2979646895175705</v>
+        <v>0.1927911572090447</v>
       </c>
       <c r="AX78">
-        <v>0.1985013481415479</v>
+        <v>0.1922637570834761</v>
       </c>
       <c r="AY78">
-        <v>0.1691859591790319</v>
+        <v>0.1900790348999063</v>
       </c>
       <c r="AZ78">
-        <v>0.429711367508645</v>
-      </c>
-      <c r="BA78">
-        <v>0.3895284750537513</v>
+        <v>0.1859251698080804</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.2717576649777722</v>
-      </c>
-      <c r="AP79">
-        <v>0.24726243139673</v>
-      </c>
-      <c r="AQ79">
-        <v>0.2506322540255144</v>
-      </c>
-      <c r="AR79">
-        <v>0.2375713676889147</v>
-      </c>
-      <c r="AS79">
-        <v>0.2319101876313548</v>
-      </c>
-      <c r="AT79">
-        <v>0.2213962375332927</v>
-      </c>
-      <c r="AU79">
-        <v>0.2259333789548595</v>
-      </c>
       <c r="AV79">
-        <v>0.2190348997787189</v>
+        <v>0.1979548980973527</v>
       </c>
       <c r="AW79">
-        <v>0.1044634786410517</v>
+        <v>0.1939254112615888</v>
       </c>
       <c r="AX79">
-        <v>0.1340620453314435</v>
+        <v>0.1971817483194273</v>
       </c>
       <c r="AY79">
-        <v>0.17406969278722</v>
+        <v>0.1889086273704634</v>
       </c>
       <c r="AZ79">
-        <v>-0.01635770438794401</v>
-      </c>
-      <c r="BA79">
-        <v>0.3666559094720299</v>
+        <v>0.1855682968403226</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.2699933635909765</v>
-      </c>
-      <c r="AP80">
-        <v>0.2468034150859689</v>
-      </c>
-      <c r="AQ80">
-        <v>0.2503493070101763</v>
-      </c>
-      <c r="AR80">
-        <v>0.2371972157113455</v>
-      </c>
-      <c r="AS80">
-        <v>0.2307210082008381</v>
-      </c>
-      <c r="AT80">
-        <v>0.2191172223750761</v>
-      </c>
-      <c r="AU80">
-        <v>0.2224039086802082</v>
-      </c>
-      <c r="AV80">
-        <v>0.2133383930024979</v>
-      </c>
       <c r="AW80">
-        <v>0.2153352937562111</v>
+        <v>0.1940208072408286</v>
       </c>
       <c r="AX80">
-        <v>0.171650508001252</v>
+        <v>0.1973451832464615</v>
       </c>
       <c r="AY80">
-        <v>0.1710983777136934</v>
+        <v>0.1920855853021736</v>
       </c>
       <c r="AZ80">
-        <v>0.2353190908442828</v>
-      </c>
-      <c r="BA80">
-        <v>0.3653772314850414</v>
+        <v>0.1847184585556509</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.2297652326925415</v>
-      </c>
-      <c r="AT81">
-        <v>0.2176599940016216</v>
-      </c>
-      <c r="AU81">
-        <v>0.2178237415688176</v>
-      </c>
-      <c r="AV81">
-        <v>0.2059611916351428</v>
-      </c>
-      <c r="AW81">
-        <v>0.2073386072377235</v>
-      </c>
       <c r="AX81">
-        <v>0.1688373259649058</v>
+        <v>0.1958380070056024</v>
       </c>
       <c r="AY81">
-        <v>0.1713819895505362</v>
+        <v>0.1906169562451385</v>
       </c>
       <c r="AZ81">
-        <v>0.2199667283058956</v>
-      </c>
-      <c r="BA81">
-        <v>0.3567660831537864</v>
+        <v>0.1853091140171187</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.2306614795025573</v>
-      </c>
-      <c r="AT82">
-        <v>0.2191537824106225</v>
-      </c>
-      <c r="AU82">
-        <v>0.2214246967597649</v>
-      </c>
-      <c r="AV82">
-        <v>0.2117591356280486</v>
-      </c>
-      <c r="AW82">
-        <v>0.1803709816752953</v>
-      </c>
-      <c r="AX82">
-        <v>0.1594115728377374</v>
-      </c>
       <c r="AY82">
-        <v>0.1720900264130252</v>
+        <v>0.1905409699925578</v>
       </c>
       <c r="AZ82">
-        <v>0.1562077420962127</v>
-      </c>
-      <c r="BA82">
-        <v>0.3234349674377626</v>
+        <v>0.1852155233383901</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.2304231169438282</v>
-      </c>
-      <c r="AT83">
-        <v>0.2187184164972766</v>
-      </c>
-      <c r="AU83">
-        <v>0.2206805618215394</v>
-      </c>
-      <c r="AV83">
-        <v>0.2105595799855796</v>
-      </c>
-      <c r="AW83">
-        <v>0.1979653686580493</v>
-      </c>
-      <c r="AX83">
-        <v>0.1656966478006245</v>
-      </c>
-      <c r="AY83">
-        <v>0.1715977352232501</v>
-      </c>
       <c r="AZ83">
-        <v>0.1970922867075595</v>
-      </c>
-      <c r="BA83">
-        <v>0.0447053338669481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.2302998491328556</v>
-      </c>
-      <c r="AT84">
-        <v>0.2185364531701113</v>
-      </c>
-      <c r="AU84">
-        <v>0.2200811462274977</v>
-      </c>
-      <c r="AV84">
-        <v>0.2095979976714782</v>
-      </c>
-      <c r="AW84">
-        <v>0.1956336092742702</v>
-      </c>
-      <c r="AX84">
-        <v>0.1648295301632306</v>
-      </c>
-      <c r="AY84">
-        <v>0.1716743926944267</v>
-      </c>
-      <c r="AZ84">
-        <v>0.1920895688177897</v>
-      </c>
-      <c r="BA84">
-        <v>0.2152101724950353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.1919578869401185</v>
-      </c>
-      <c r="AX85">
-        <v>0.1634831901347318</v>
-      </c>
-      <c r="AY85">
-        <v>0.171774560232109</v>
-      </c>
-      <c r="AZ85">
-        <v>0.1831666035366758</v>
-      </c>
-      <c r="BA85">
-        <v>0.1984995394378929</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.1947089575429341</v>
-      </c>
-      <c r="AX86">
-        <v>0.1645177684373807</v>
-      </c>
-      <c r="AY86">
-        <v>0.171694194200685</v>
-      </c>
-      <c r="AZ86">
-        <v>0.1897109571209389</v>
-      </c>
-      <c r="BA86">
-        <v>0.1582078190437568</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.1941906170801403</v>
-      </c>
-      <c r="AX87">
-        <v>0.1643146783260065</v>
-      </c>
-      <c r="AY87">
-        <v>0.1717112328873743</v>
-      </c>
-      <c r="AZ87">
-        <v>0.1885404259750124</v>
-      </c>
-      <c r="BA87">
-        <v>0.1863375806104529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.1937032286951843</v>
-      </c>
-      <c r="AX88">
-        <v>0.164128005890179</v>
-      </c>
-      <c r="AY88">
-        <v>0.1717249711394742</v>
-      </c>
-      <c r="AZ88">
-        <v>0.1873235713832553</v>
-      </c>
-      <c r="BA88">
-        <v>0.1819136286235266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.1762277216756264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.1808022700131533</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.1798291094851712</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.1790507733855714</v>
+        <v>0.1850987185908037</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_DOMUSE_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_DOMUSE_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>-0.1390655880558631</v>
       </c>
       <c r="AG64">
-        <v>4.729401638091318</v>
+        <v>-4.286393709578393</v>
       </c>
       <c r="AH64">
         <v>4.665333711727925</v>
@@ -9166,10 +9166,10 @@
         <v>0.2118347729944323</v>
       </c>
       <c r="AG65">
-        <v>-0.5275556385392903</v>
+        <v>-3.508190234234744</v>
       </c>
       <c r="AH65">
-        <v>-0.8905127363963885</v>
+        <v>-0.7497033268286971</v>
       </c>
       <c r="AI65">
         <v>-0.2672256391354182</v>
@@ -9255,13 +9255,13 @@
         <v>0.1491138998768531</v>
       </c>
       <c r="AG66">
-        <v>0.1578522031510884</v>
+        <v>-2.643083159779476</v>
       </c>
       <c r="AH66">
-        <v>0.3853497904027477</v>
+        <v>0.3295706287828637</v>
       </c>
       <c r="AI66">
-        <v>-2.04269378128221</v>
+        <v>-0.04498056438296638</v>
       </c>
       <c r="AJ66">
         <v>-1.26956845314902</v>
@@ -9341,16 +9341,16 @@
         <v>0.2217622527700155</v>
       </c>
       <c r="AG67">
-        <v>0.2261259226616552</v>
+        <v>-2.047237956259565</v>
       </c>
       <c r="AH67">
-        <v>0.1692805543054073</v>
+        <v>0.1731526550775851</v>
       </c>
       <c r="AI67">
-        <v>0.8093216539565666</v>
+        <v>0.2936730583890511</v>
       </c>
       <c r="AJ67">
-        <v>2.093024636165651</v>
+        <v>0.7002373774769056</v>
       </c>
       <c r="AK67">
         <v>2.350117300589673</v>
@@ -9424,19 +9424,19 @@
         <v>0.2103173498062632</v>
       </c>
       <c r="AG68">
-        <v>0.1813808225015348</v>
+        <v>-1.588591004660259</v>
       </c>
       <c r="AH68">
-        <v>0.2001251871363511</v>
+        <v>0.1901448874662345</v>
       </c>
       <c r="AI68">
-        <v>0.4198288993950781</v>
+        <v>0.2025337350725342</v>
       </c>
       <c r="AJ68">
-        <v>-0.09914031611404089</v>
+        <v>0.2893505185854685</v>
       </c>
       <c r="AK68">
-        <v>1.098535546956398</v>
+        <v>-0.2185484173027438</v>
       </c>
       <c r="AL68">
         <v>2.031122027629067</v>
@@ -9504,22 +9504,22 @@
         <v>0.2253966636044061</v>
       </c>
       <c r="AG69">
-        <v>0.1886441757659254</v>
+        <v>-1.245824378243083</v>
       </c>
       <c r="AH69">
-        <v>0.1963042299247037</v>
+        <v>0.1890541710406209</v>
       </c>
       <c r="AI69">
-        <v>0.04473993858004938</v>
+        <v>0.1962384917386616</v>
       </c>
       <c r="AJ69">
-        <v>0.06397493932129422</v>
+        <v>0.1244322402521102</v>
       </c>
       <c r="AK69">
-        <v>-0.3606102710296515</v>
+        <v>0.08230560333909265</v>
       </c>
       <c r="AL69">
-        <v>-0.4717175472572421</v>
+        <v>-0.67567918679623</v>
       </c>
       <c r="AM69">
         <v>-0.5497577098212645</v>
@@ -9581,25 +9581,25 @@
         <v>0.2233539779415025</v>
       </c>
       <c r="AG70">
-        <v>0.1889002704597713</v>
+        <v>-0.9877032334591382</v>
       </c>
       <c r="AH70">
-        <v>0.1967075868482919</v>
+        <v>0.1889901575626091</v>
       </c>
       <c r="AI70">
-        <v>0.1982118645170549</v>
+        <v>0.2046631104168349</v>
       </c>
       <c r="AJ70">
-        <v>0.4020195164109246</v>
+        <v>0.2314236079107743</v>
       </c>
       <c r="AK70">
-        <v>0.3565085455179231</v>
+        <v>0.4246083327144108</v>
       </c>
       <c r="AL70">
-        <v>0.2389030594714187</v>
+        <v>0.2995829135538967</v>
       </c>
       <c r="AM70">
-        <v>0.9401304606753627</v>
+        <v>0.3188846017760019</v>
       </c>
       <c r="AN70">
         <v>1.775201599534199</v>
@@ -9655,28 +9655,28 @@
         <v>0.2264922744622411</v>
       </c>
       <c r="AG71">
-        <v>0.188532380152339</v>
+        <v>-0.7937084796504275</v>
       </c>
       <c r="AH71">
-        <v>0.1966746979345722</v>
+        <v>0.1890266547941414</v>
       </c>
       <c r="AI71">
-        <v>0.223132269183064</v>
+        <v>0.2033104898696202</v>
       </c>
       <c r="AJ71">
-        <v>0.2539490550496376</v>
+        <v>0.2242061407914728</v>
       </c>
       <c r="AK71">
-        <v>0.3897437433597827</v>
+        <v>0.2515510050948854</v>
       </c>
       <c r="AL71">
-        <v>0.5165630389156362</v>
+        <v>0.5028487477794797</v>
       </c>
       <c r="AM71">
-        <v>0.2967521820080331</v>
+        <v>0.4977770794640427</v>
       </c>
       <c r="AN71">
-        <v>0.6392725048137464</v>
+        <v>0.03851268833981415</v>
       </c>
       <c r="AO71">
         <v>0.7199425862606432</v>
@@ -9726,31 +9726,31 @@
         <v>0.2261389024698555</v>
       </c>
       <c r="AG72">
-        <v>0.1886051124109552</v>
+        <v>-0.6478341070767784</v>
       </c>
       <c r="AH72">
-        <v>0.1966758045785205</v>
+        <v>0.1890190690875639</v>
       </c>
       <c r="AI72">
-        <v>0.191994853727227</v>
+        <v>0.2029541665861029</v>
       </c>
       <c r="AJ72">
-        <v>0.2449657131587995</v>
+        <v>0.2108749311243137</v>
       </c>
       <c r="AK72">
-        <v>0.2453737262156401</v>
+        <v>0.2527642454274994</v>
       </c>
       <c r="AL72">
-        <v>0.2946891088545431</v>
+        <v>0.2599595685726809</v>
       </c>
       <c r="AM72">
-        <v>0.2006504976697662</v>
+        <v>0.2717677930988472</v>
       </c>
       <c r="AN72">
-        <v>-0.02248885633498393</v>
+        <v>0.1687858221357038</v>
       </c>
       <c r="AO72">
-        <v>0.06357296580725347</v>
+        <v>-0.00101971210253729</v>
       </c>
       <c r="AP72">
         <v>0.5016525134024334</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.1886042589842946</v>
+        <v>-0.5381584434198711</v>
       </c>
       <c r="AH73">
-        <v>0.1966760987551411</v>
+        <v>0.1890201985990884</v>
       </c>
       <c r="AI73">
-        <v>0.1953385751065638</v>
+        <v>0.2031366034139685</v>
       </c>
       <c r="AJ73">
-        <v>0.2748195863239653</v>
+        <v>0.2157764636754823</v>
       </c>
       <c r="AK73">
-        <v>0.2871221694445421</v>
+        <v>0.2825373361465565</v>
       </c>
       <c r="AL73">
-        <v>0.30656272000175</v>
+        <v>0.2965871688026788</v>
       </c>
       <c r="AM73">
-        <v>0.3556205069482609</v>
+        <v>0.3063770402542852</v>
       </c>
       <c r="AN73">
-        <v>0.371513628781477</v>
+        <v>0.4311362803442193</v>
       </c>
       <c r="AO73">
-        <v>0.3122140916839123</v>
+        <v>0.341566077218275</v>
       </c>
       <c r="AP73">
-        <v>-1.012166871044968</v>
+        <v>0.1061881582661627</v>
       </c>
       <c r="AQ73">
         <v>-0.5890802842202163</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.1886013522277703</v>
-      </c>
       <c r="AH74">
-        <v>0.1966760079714538</v>
+        <v>0.189020071889152</v>
       </c>
       <c r="AI74">
-        <v>0.1996506061118111</v>
+        <v>0.2031243299309784</v>
       </c>
       <c r="AJ74">
-        <v>0.2659605008763647</v>
+        <v>0.2162783488150342</v>
       </c>
       <c r="AK74">
-        <v>0.3001057710146052</v>
+        <v>0.2718398763487877</v>
       </c>
       <c r="AL74">
-        <v>0.3464295812761149</v>
+        <v>0.3303912098096737</v>
       </c>
       <c r="AM74">
-        <v>0.3273864542409668</v>
+        <v>0.3401253532341318</v>
       </c>
       <c r="AN74">
-        <v>0.36131531243071</v>
+        <v>0.3298192876469111</v>
       </c>
       <c r="AO74">
-        <v>0.3517090595879572</v>
+        <v>0.3604818684940594</v>
       </c>
       <c r="AP74">
-        <v>0.6612985802716463</v>
+        <v>0.3358752100847114</v>
       </c>
       <c r="AQ74">
-        <v>-0.5703626997413522</v>
+        <v>0.5280439739228534</v>
       </c>
       <c r="AR74">
         <v>-1.005803602395417</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.1966760250811814</v>
-      </c>
       <c r="AI75">
-        <v>0.1980723856077093</v>
+        <v>0.2031128977061782</v>
       </c>
       <c r="AJ75">
-        <v>0.2636867599413008</v>
+        <v>0.2154264810546725</v>
       </c>
       <c r="AK75">
-        <v>0.2880330277609</v>
+        <v>0.270411670136007</v>
       </c>
       <c r="AL75">
-        <v>0.3322119826828731</v>
+        <v>0.3132644400469178</v>
       </c>
       <c r="AM75">
-        <v>0.305650935337018</v>
+        <v>0.3229014004627109</v>
       </c>
       <c r="AN75">
-        <v>0.2983805990735668</v>
+        <v>0.3146791357137848</v>
       </c>
       <c r="AO75">
-        <v>0.2945718995416857</v>
+        <v>0.2954187003388153</v>
       </c>
       <c r="AP75">
-        <v>0.4317643981353869</v>
+        <v>0.3381671693130445</v>
       </c>
       <c r="AQ75">
-        <v>0.678978687433329</v>
+        <v>0.3853532168319675</v>
       </c>
       <c r="AR75">
-        <v>0.2394101325822788</v>
+        <v>0.8777961488710669</v>
       </c>
       <c r="AS75">
         <v>0.5789791938159112</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.197741471863618</v>
-      </c>
       <c r="AJ76">
-        <v>0.2660823691319445</v>
+        <v>0.2156008721723962</v>
       </c>
       <c r="AK76">
-        <v>0.2896268498593068</v>
+        <v>0.2727814904600919</v>
       </c>
       <c r="AL76">
-        <v>0.3286539809872765</v>
+        <v>0.3122391339152621</v>
       </c>
       <c r="AM76">
-        <v>0.3177675830327832</v>
+        <v>0.3215842755511979</v>
       </c>
       <c r="AN76">
-        <v>0.319445540719436</v>
+        <v>0.3368065562248092</v>
       </c>
       <c r="AO76">
-        <v>0.3055015725350389</v>
+        <v>0.3122272647407088</v>
       </c>
       <c r="AP76">
-        <v>0.1713736972598669</v>
+        <v>0.2944382419223992</v>
       </c>
       <c r="AQ76">
-        <v>0.2887933596433728</v>
+        <v>0.2148698830711082</v>
       </c>
       <c r="AR76">
-        <v>0.453280377663446</v>
+        <v>0.3012644508693455</v>
       </c>
       <c r="AS76">
-        <v>-0.04072131480353391</v>
+        <v>0.3643155465403478</v>
       </c>
       <c r="AT76">
         <v>-0.3682387698544858</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.2656514969957892</v>
-      </c>
       <c r="AK77">
-        <v>0.2913424628710533</v>
+        <v>0.2721961047774849</v>
       </c>
       <c r="AL77">
-        <v>0.3324971940394528</v>
+        <v>0.3157263355478115</v>
       </c>
       <c r="AM77">
-        <v>0.3183409738539487</v>
+        <v>0.3253771951609772</v>
       </c>
       <c r="AN77">
-        <v>0.3235209372074589</v>
+        <v>0.3327961113318326</v>
       </c>
       <c r="AO77">
-        <v>0.3123199877907298</v>
+        <v>0.3182881081231778</v>
       </c>
       <c r="AP77">
-        <v>0.2996960588364728</v>
+        <v>0.3076720890448332</v>
       </c>
       <c r="AQ77">
-        <v>0.1700374881837136</v>
+        <v>0.2966705199882281</v>
       </c>
       <c r="AR77">
-        <v>0.1639135805488596</v>
+        <v>0.1246252570305768</v>
       </c>
       <c r="AS77">
-        <v>0.2446309237367612</v>
+        <v>0.1344059941099104</v>
       </c>
       <c r="AT77">
-        <v>-0.07958838003274593</v>
+        <v>0.332041271681162</v>
       </c>
       <c r="AU77">
         <v>-0.2885446736570572</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.2904765679925098</v>
-      </c>
       <c r="AL78">
-        <v>0.3320466661767213</v>
+        <v>0.3148496909019965</v>
       </c>
       <c r="AM78">
-        <v>0.3157976587374973</v>
+        <v>0.3244650893419825</v>
       </c>
       <c r="AN78">
-        <v>0.3187351784543184</v>
+        <v>0.3301586542973803</v>
       </c>
       <c r="AO78">
-        <v>0.3082049484192779</v>
+        <v>0.3135118745842211</v>
       </c>
       <c r="AP78">
-        <v>0.3108300730567787</v>
+        <v>0.3117261734516353</v>
       </c>
       <c r="AQ78">
-        <v>0.2815828035071105</v>
+        <v>0.3035951384809393</v>
       </c>
       <c r="AR78">
-        <v>0.213741624603347</v>
+        <v>0.2858903600785752</v>
       </c>
       <c r="AS78">
-        <v>0.2702465464329047</v>
+        <v>0.2454962336276151</v>
       </c>
       <c r="AT78">
-        <v>0.4231662827395889</v>
+        <v>0.2998947699497946</v>
       </c>
       <c r="AU78">
-        <v>0.02912383308249389</v>
+        <v>0.4819063909728227</v>
       </c>
       <c r="AV78">
         <v>0</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.3314291629960963</v>
-      </c>
       <c r="AM79">
-        <v>0.3164573113559725</v>
+        <v>0.3240010049731849</v>
       </c>
       <c r="AN79">
-        <v>0.3195235657910796</v>
+        <v>0.3316459810383068</v>
       </c>
       <c r="AO79">
-        <v>0.3082780480925468</v>
+        <v>0.3139380460342757</v>
       </c>
       <c r="AP79">
-        <v>0.2817460482185484</v>
+        <v>0.3079812162481992</v>
       </c>
       <c r="AQ79">
-        <v>0.2698312877289112</v>
+        <v>0.2855855898789652</v>
       </c>
       <c r="AR79">
-        <v>0.2506090191202292</v>
+        <v>0.269910270277456</v>
       </c>
       <c r="AS79">
-        <v>0.2092171035057684</v>
+        <v>0.253651645477574</v>
       </c>
       <c r="AT79">
-        <v>0.2116139134719616</v>
+        <v>0.1809613779686149</v>
       </c>
       <c r="AU79">
-        <v>0.3699198881646638</v>
+        <v>0.2263935919295004</v>
       </c>
       <c r="AV79">
-        <v>-0.1311265493919933</v>
+        <v>0.4681720678813691</v>
       </c>
       <c r="AW79">
         <v>0.009541324901121584</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.3167544641858469</v>
-      </c>
       <c r="AN80">
-        <v>0.3200836409409464</v>
+        <v>0.331657555986463</v>
       </c>
       <c r="AO80">
-        <v>0.3089943925382571</v>
+        <v>0.3146322359846682</v>
       </c>
       <c r="AP80">
-        <v>0.2887569553087586</v>
+        <v>0.3083921277632228</v>
       </c>
       <c r="AQ80">
-        <v>0.2520847713428171</v>
+        <v>0.2899759775928759</v>
       </c>
       <c r="AR80">
-        <v>0.2303896440728823</v>
+        <v>0.2446533793891935</v>
       </c>
       <c r="AS80">
-        <v>0.2235967436734202</v>
+        <v>0.2305335744548782</v>
       </c>
       <c r="AT80">
-        <v>0.1851644158302929</v>
+        <v>0.2245444811673751</v>
       </c>
       <c r="AU80">
-        <v>0.2064985737399636</v>
+        <v>0.1646546116838834</v>
       </c>
       <c r="AV80">
-        <v>0.3679506659464772</v>
+        <v>0.17420684708628</v>
       </c>
       <c r="AW80">
-        <v>-0.03907468377752821</v>
+        <v>0.3207438967639749</v>
       </c>
       <c r="AX80">
         <v>1.028868575076984</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.3197791907296927</v>
-      </c>
       <c r="AO81">
-        <v>0.3087552571270788</v>
+        <v>0.3143443309442016</v>
       </c>
       <c r="AP81">
-        <v>0.2923236790037452</v>
+        <v>0.3089650458453436</v>
       </c>
       <c r="AQ81">
-        <v>0.2598289995520225</v>
+        <v>0.2920596041329585</v>
       </c>
       <c r="AR81">
-        <v>0.2299259768496841</v>
+        <v>0.2553046583469353</v>
       </c>
       <c r="AS81">
-        <v>0.2304224020509967</v>
+        <v>0.2361921306185236</v>
       </c>
       <c r="AT81">
-        <v>0.2326181154004152</v>
+        <v>0.2326732689652927</v>
       </c>
       <c r="AU81">
-        <v>0.1956075447020114</v>
+        <v>0.2309192464969316</v>
       </c>
       <c r="AV81">
-        <v>0.2359326289479346</v>
+        <v>0.1807786331834558</v>
       </c>
       <c r="AW81">
-        <v>0.3613332751045136</v>
+        <v>0.2303723662871337</v>
       </c>
       <c r="AX81">
-        <v>0.1771324545010202</v>
+        <v>0.02664733879111017</v>
       </c>
       <c r="AY81">
         <v>1.007059757688495</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.3087019866701662</v>
-      </c>
       <c r="AP82">
-        <v>0.2897960118587615</v>
+        <v>0.3087090880475786</v>
       </c>
       <c r="AQ82">
-        <v>0.2608345752168561</v>
+        <v>0.2905484551173857</v>
       </c>
       <c r="AR82">
-        <v>0.2337062263276104</v>
+        <v>0.2567864979912684</v>
       </c>
       <c r="AS82">
-        <v>0.2256114067397084</v>
+        <v>0.2387216821296676</v>
       </c>
       <c r="AT82">
-        <v>0.2225826927022835</v>
+        <v>0.2220640947105247</v>
       </c>
       <c r="AU82">
-        <v>0.2285719082455484</v>
+        <v>0.2215526111320047</v>
       </c>
       <c r="AV82">
-        <v>0.1892700643543989</v>
+        <v>0.2313525696392629</v>
       </c>
       <c r="AW82">
-        <v>0.2415370699139266</v>
+        <v>0.2032629972347514</v>
       </c>
       <c r="AX82">
-        <v>0.1280600634680644</v>
+        <v>0.1742546172623092</v>
       </c>
       <c r="AY82">
-        <v>0.4946531409412387</v>
+        <v>-0.1467619850338828</v>
       </c>
       <c r="AZ82">
         <v>-0.5319104727235242</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.2898877990151983</v>
-      </c>
       <c r="AQ83">
-        <v>0.2590388628616902</v>
+        <v>0.2906264869254772</v>
       </c>
       <c r="AR83">
-        <v>0.2326359111302232</v>
+        <v>0.2543480219608074</v>
       </c>
       <c r="AS83">
-        <v>0.2258523018926933</v>
+        <v>0.2368884296904857</v>
       </c>
       <c r="AT83">
-        <v>0.2169616234063358</v>
+        <v>0.2239244143364342</v>
       </c>
       <c r="AU83">
-        <v>0.2202974963441968</v>
+        <v>0.2123008345319151</v>
       </c>
       <c r="AV83">
-        <v>0.2269603147606867</v>
+        <v>0.2146359489258886</v>
       </c>
       <c r="AW83">
-        <v>0.2058854385913348</v>
+        <v>0.2277917342888979</v>
       </c>
       <c r="AX83">
-        <v>0.304099699395346</v>
+        <v>0.3152664907839073</v>
       </c>
       <c r="AY83">
-        <v>0.0866958917134216</v>
+        <v>0.2564623293138822</v>
       </c>
       <c r="AZ83">
-        <v>0.202428137729683</v>
+        <v>0.4019405934352949</v>
       </c>
       <c r="BA83">
         <v>0.4200898674779694</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.2594017636088585</v>
-      </c>
       <c r="AR84">
-        <v>0.2322822744344182</v>
+        <v>0.2548116626603635</v>
       </c>
       <c r="AS84">
-        <v>0.2266702871608795</v>
+        <v>0.2369881998818544</v>
       </c>
       <c r="AT84">
-        <v>0.2205862726412087</v>
+        <v>0.2252914338437814</v>
       </c>
       <c r="AU84">
-        <v>0.2169027154277899</v>
+        <v>0.2169146240005318</v>
       </c>
       <c r="AV84">
-        <v>0.2234483337663785</v>
+        <v>0.2107246043113853</v>
       </c>
       <c r="AW84">
-        <v>0.2395498259171987</v>
+        <v>0.2249532998660946</v>
       </c>
       <c r="AX84">
-        <v>0.2564238442104546</v>
+        <v>0.2416581260118855</v>
       </c>
       <c r="AY84">
-        <v>0.3066026461764033</v>
+        <v>0.3455324894803476</v>
       </c>
       <c r="AZ84">
-        <v>0.4365120142420879</v>
+        <v>0.383971233733856</v>
       </c>
       <c r="BA84">
-        <v>0.208573386070384</v>
+        <v>0.2996775142190355</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.2325828236818733</v>
-      </c>
       <c r="AS85">
-        <v>0.2263690498073443</v>
+        <v>0.2372970185186716</v>
       </c>
       <c r="AT85">
-        <v>0.2204858143864797</v>
+        <v>0.2245156242063928</v>
       </c>
       <c r="AU85">
-        <v>0.219455522386345</v>
+        <v>0.2171728635470749</v>
       </c>
       <c r="AV85">
-        <v>0.2179179949532182</v>
+        <v>0.214917295262062</v>
       </c>
       <c r="AW85">
-        <v>0.2353261746452861</v>
+        <v>0.221478949128917</v>
       </c>
       <c r="AX85">
-        <v>0.2387290158906654</v>
+        <v>0.2389733150936773</v>
       </c>
       <c r="AY85">
-        <v>0.3143171910556238</v>
+        <v>0.2419592111661603</v>
       </c>
       <c r="AZ85">
-        <v>0.2165606773423651</v>
+        <v>0.205764452504363</v>
       </c>
       <c r="BA85">
-        <v>0.2464297750638646</v>
+        <v>0.2334133005337194</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.2263115888263497</v>
-      </c>
       <c r="AT86">
-        <v>0.2198469255585077</v>
+        <v>0.224509218880982</v>
       </c>
       <c r="AU86">
-        <v>0.2192765379614364</v>
+        <v>0.2162440951168816</v>
       </c>
       <c r="AV86">
-        <v>0.2202531603627073</v>
+        <v>0.2143287030763195</v>
       </c>
       <c r="AW86">
-        <v>0.2304474852518166</v>
+        <v>0.2230682048749324</v>
       </c>
       <c r="AX86">
-        <v>0.2534147258087094</v>
+        <v>0.2537213710762474</v>
       </c>
       <c r="AY86">
-        <v>0.2713659531877638</v>
+        <v>0.2579041966221973</v>
       </c>
       <c r="AZ86">
-        <v>0.2396742223787144</v>
+        <v>0.2663524755455109</v>
       </c>
       <c r="BA86">
-        <v>0.2741980645855882</v>
+        <v>0.2774134492184185</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.2200664913110766</v>
-      </c>
       <c r="AU87">
-        <v>0.2188701094377824</v>
+        <v>0.2164869663535653</v>
       </c>
       <c r="AV87">
-        <v>0.2204992395994199</v>
+        <v>0.2137594562953814</v>
       </c>
       <c r="AW87">
-        <v>0.2327994299701835</v>
+        <v>0.2231896888462437</v>
       </c>
       <c r="AX87">
-        <v>0.2519952868957982</v>
+        <v>0.2494392878525332</v>
       </c>
       <c r="AY87">
-        <v>0.2831395320931048</v>
+        <v>0.2722786455920507</v>
       </c>
       <c r="AZ87">
-        <v>0.2760497126909016</v>
+        <v>0.2820617352534212</v>
       </c>
       <c r="BA87">
-        <v>0.2582803400935843</v>
+        <v>0.2763245114640269</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.2190288281917749</v>
-      </c>
       <c r="AV88">
-        <v>0.2200125436857759</v>
+        <v>0.2140396852481642</v>
       </c>
       <c r="AW88">
-        <v>0.2329467797462568</v>
+        <v>0.2228692395485048</v>
       </c>
       <c r="AX88">
-        <v>0.2496923292192242</v>
+        <v>0.2480492903464518</v>
       </c>
       <c r="AY88">
-        <v>0.2874480624909553</v>
+        <v>0.2647644572105415</v>
       </c>
       <c r="AZ88">
-        <v>0.259946183481347</v>
+        <v>0.2650975996354087</v>
       </c>
       <c r="BA88">
-        <v>0.2581045528321401</v>
+        <v>0.2682027943664919</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.2201205201050555</v>
-      </c>
       <c r="AW89">
-        <v>0.2324636102059388</v>
+        <v>0.2229476850767593</v>
       </c>
       <c r="AX89">
-        <v>0.2507036937491348</v>
+        <v>0.2493078203195205</v>
       </c>
       <c r="AY89">
-        <v>0.2839515662018604</v>
+        <v>0.2644394144371676</v>
       </c>
       <c r="AZ89">
-        <v>0.2578171779361752</v>
+        <v>0.2674336590103233</v>
       </c>
       <c r="BA89">
-        <v>0.2611528683049122</v>
+        <v>0.2709661572045218</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.2325917358194568</v>
-      </c>
       <c r="AX90">
-        <v>0.2508098657754468</v>
+        <v>0.2491612539152318</v>
       </c>
       <c r="AY90">
-        <v>0.2842308175187579</v>
+        <v>0.2659490604352546</v>
       </c>
       <c r="AZ90">
-        <v>0.2616897423586474</v>
+        <v>0.27002759358757</v>
       </c>
       <c r="BA90">
-        <v>0.2602198199942837</v>
+        <v>0.2716595556827618</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.2505853491750679</v>
-      </c>
       <c r="AY91">
-        <v>0.2847902466630031</v>
+        <v>0.2655343893576227</v>
       </c>
       <c r="AZ91">
-        <v>0.2608870326423767</v>
+        <v>0.2687370332231431</v>
       </c>
       <c r="BA91">
-        <v>0.2599424323371409</v>
+        <v>0.2709099380802122</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.2845668243703328</v>
-      </c>
       <c r="AZ92">
-        <v>0.2603718419254252</v>
+        <v>0.2686391935376293</v>
       </c>
       <c r="BA92">
-        <v>0.2602057615686134</v>
+        <v>0.2710122703112585</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.2606943405417806</v>
-      </c>
       <c r="BA93">
-        <v>0.2601744552346262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.2601348700188377</v>
+        <v>0.2711242927507634</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_DOMUSE_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_DOMUSE_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>-0.6785311155745859</v>
       </c>
+      <c r="BB2">
+        <v>-0.6785311155745859</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>1.602887836530243</v>
       </c>
+      <c r="BB3">
+        <v>1.602887836530243</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>-1.258229598656428</v>
       </c>
+      <c r="BB4">
+        <v>-1.258229598656428</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>0.7939633611163259</v>
       </c>
+      <c r="BB5">
+        <v>0.7939633611163259</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>-0.5251394922476749</v>
       </c>
+      <c r="BB6">
+        <v>-0.5251394922476749</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>-1.32903296106565</v>
       </c>
+      <c r="BB7">
+        <v>-1.32903296106565</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>-1.501005349787889</v>
       </c>
+      <c r="BB8">
+        <v>-1.501005349787889</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>1.094075326722859</v>
       </c>
+      <c r="BB9">
+        <v>1.094075326722859</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>-0.6087605469991217</v>
       </c>
+      <c r="BB10">
+        <v>-0.6087605469991217</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>1.636155096406839</v>
       </c>
+      <c r="BB11">
+        <v>1.636155096406839</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>1.53095784658872</v>
       </c>
+      <c r="BB12">
+        <v>1.53095784658872</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>0.1790633318223627</v>
       </c>
+      <c r="BB13">
+        <v>0.1790633318223627</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>0.3480705421442281</v>
       </c>
+      <c r="BB14">
+        <v>0.3480705421442281</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>1.451221515208928</v>
       </c>
+      <c r="BB15">
+        <v>1.451221515208928</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>0.8239934654972245</v>
       </c>
+      <c r="BB16">
+        <v>0.8239934654972245</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>0.2020273747754828</v>
       </c>
+      <c r="BB17">
+        <v>0.2020273747754828</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>0.03665234221521985</v>
       </c>
+      <c r="BB18">
+        <v>0.03665234221521985</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>-0.3568640125838272</v>
       </c>
+      <c r="BB19">
+        <v>-0.3568640125838272</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>-0.6140442841884663</v>
       </c>
+      <c r="BB20">
+        <v>-0.6140442841884663</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>-0.4707272781813003</v>
       </c>
+      <c r="BB21">
+        <v>-0.4707272781813003</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>0.6798763458711505</v>
       </c>
+      <c r="BB22">
+        <v>0.6798763458711505</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>-0.4549252105260422</v>
       </c>
+      <c r="BB23">
+        <v>-0.4549252105260422</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>0.8156466047582853</v>
       </c>
+      <c r="BB24">
+        <v>0.8156466047582853</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>0.9357631895998964</v>
       </c>
+      <c r="BB25">
+        <v>0.9357631895998964</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>-0.1255439525040316</v>
       </c>
+      <c r="BB26">
+        <v>-0.1255439525040316</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>0.8309616106594575</v>
       </c>
+      <c r="BB27">
+        <v>0.8309616106594575</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>0.13455620655985</v>
       </c>
+      <c r="BB28">
+        <v>0.13455620655985</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>-0.3839223037353605</v>
       </c>
+      <c r="BB29">
+        <v>-0.3839223037353605</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>0.8864082508326874</v>
       </c>
+      <c r="BB30">
+        <v>0.8864082508326874</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>0.2947380355466294</v>
       </c>
+      <c r="BB31">
+        <v>0.2947380355466294</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>-0.07583325464557333</v>
       </c>
+      <c r="BB32">
+        <v>-0.07583325464557333</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>0.7873983253725783</v>
       </c>
+      <c r="BB33">
+        <v>0.7873983253725783</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>0.9695092796512768</v>
       </c>
+      <c r="BB34">
+        <v>0.9695092796512768</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>0.6245863217464631</v>
       </c>
+      <c r="BB35">
+        <v>0.6245863217464631</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>0.04631981473890789</v>
       </c>
+      <c r="BB36">
+        <v>0.04631981473890789</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>0.5741282506780578</v>
       </c>
+      <c r="BB37">
+        <v>0.5741282506780578</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>0.6629265129002277</v>
       </c>
+      <c r="BB38">
+        <v>0.6629265129002277</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>0.3877663769499975</v>
       </c>
+      <c r="BB39">
+        <v>0.3877663769499975</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>1.117874141853932</v>
       </c>
+      <c r="BB40">
+        <v>1.117874141853932</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>0.359515012501916</v>
       </c>
+      <c r="BB41">
+        <v>0.359515012501916</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>0.1242992151364578</v>
       </c>
+      <c r="BB42">
+        <v>0.1242992151364578</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>0.1571952554336775</v>
       </c>
+      <c r="BB43">
+        <v>0.1571952554336775</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>0.7965518134806615</v>
       </c>
+      <c r="BB44">
+        <v>0.7965518134806615</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>0.6786821427891851</v>
       </c>
+      <c r="BB45">
+        <v>0.6786821427891851</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>0.424793870183592</v>
       </c>
+      <c r="BB46">
+        <v>0.424793870183592</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>0.3</v>
       </c>
+      <c r="BB47">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>0.3</v>
       </c>
+      <c r="BB48">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>-0.5</v>
       </c>
+      <c r="BB49">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>0.3</v>
       </c>
+      <c r="BB50">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>-0.9728763394718669</v>
       </c>
+      <c r="BB51">
+        <v>-0.9728763394718669</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>-7.646786505763302</v>
       </c>
+      <c r="BB52">
+        <v>-7.646786505763302</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>5.056075122789721</v>
       </c>
+      <c r="BB53">
+        <v>5.056075122789721</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>-0.1620152258813761</v>
       </c>
+      <c r="BB54">
+        <v>-0.1620152258813761</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>-0.8490652932627256</v>
       </c>
+      <c r="BB55">
+        <v>-0.8490652932627256</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>2.57367793996282</v>
       </c>
+      <c r="BB56">
+        <v>2.57367793996282</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>1.893477998435444</v>
       </c>
+      <c r="BB57">
+        <v>1.893477998435444</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>-0.4760149577203094</v>
       </c>
+      <c r="BB58">
+        <v>-0.4760149577203094</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>1.115155785188662</v>
       </c>
+      <c r="BB59">
+        <v>1.115155785188662</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>0.5952357910519908</v>
       </c>
+      <c r="BB60">
+        <v>0.5952357910519908</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>0.8967419189327899</v>
       </c>
+      <c r="BB61">
+        <v>0.8967419189327899</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>-1.030904243755657</v>
       </c>
+      <c r="BB62">
+        <v>-1.030904243755657</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>-0.5254260915594955</v>
       </c>
+      <c r="BB63">
+        <v>-0.5254260915594955</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>0.3702002717572981</v>
       </c>
+      <c r="BB64">
+        <v>0.3702002717572981</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>-0.2788735881504181</v>
       </c>
+      <c r="BB65">
+        <v>-0.2788735881504181</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>-0.8389720173227175</v>
       </c>
+      <c r="BB66">
+        <v>-0.8389720173227175</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>0.1503986163346127</v>
       </c>
+      <c r="BB67">
+        <v>0.1503986163346127</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>-0.01906297584814354</v>
       </c>
+      <c r="BB68">
+        <v>-0.01906297584814354</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>1.268119412418997</v>
       </c>
+      <c r="BB69">
+        <v>1.268119412418997</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>0.8944503735891658</v>
       </c>
+      <c r="BB70">
+        <v>0.8944503735891658</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>-0.1212118887798113</v>
       </c>
+      <c r="BB71">
+        <v>-0.1118837721692358</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>0.4200898674779694</v>
       </c>
+      <c r="BB72">
+        <v>0.3266766184601977</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>0.2996775142190355</v>
       </c>
+      <c r="BB73">
+        <v>0.325608361860148</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>0.2334133005337194</v>
       </c>
+      <c r="BB74">
+        <v>0.2270536959888376</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>0.2774134492184185</v>
       </c>
+      <c r="BB75">
+        <v>0.2584586613899786</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>0.2763245114640269</v>
       </c>
+      <c r="BB76">
+        <v>0.267110162551939</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>0.2682027943664919</v>
       </c>
+      <c r="BB77">
+        <v>0.2584457304690463</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>0.2709661572045218</v>
       </c>
+      <c r="BB78">
+        <v>0.25955667089935</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>0.2716595556827618</v>
       </c>
+      <c r="BB79">
+        <v>0.2608396828010808</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>0.2709099380802122</v>
       </c>
+      <c r="BB80">
+        <v>0.2602238633310655</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>0.2710122703112585</v>
       </c>
+      <c r="BB81">
+        <v>0.2601767679767295</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.2711242927507634</v>
+      </c>
+      <c r="BB82">
+        <v>0.2603078675382955</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.2602752457138798</v>
       </c>
     </row>
   </sheetData>
